--- a/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.236466412520811E-06</v>
+        <v>-1.236466412520811E-06</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0004670347454553303</v>
+        <v>-0.0004670347454553303</v>
       </c>
       <c r="C4">
-        <v>3.592634234004855E-06</v>
+        <v>-3.592634234004855E-06</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7419.091319003097</v>
+        <v>-7419.091319003097</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4128.005207824431</v>
+        <v>-4128.005207824431</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>418258.89942389</v>
+        <v>-418258.89942389</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7464858.848968079</v>
+        <v>-7464858.848968079</v>
       </c>
       <c r="C4">
-        <v>1215278.65660659</v>
+        <v>-1215278.65660659</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>297949261.912626</v>
+        <v>-297949261.912626</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>129741393.4903591</v>
+        <v>-129741393.4903591</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>447217.9842105993</v>
+        <v>-447217.9842105993</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7953331.418244656</v>
+        <v>-7953331.418244656</v>
       </c>
       <c r="C4">
-        <v>1299421.176238865</v>
+        <v>-1299421.176238865</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>301240116.7787766</v>
+        <v>-301240116.7787766</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>129192784.2460685</v>
+        <v>-129192784.2460685</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.075534161340905E-05</v>
+        <v>-2.075534161340905E-05</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.006562609820868664</v>
+        <v>-0.006562609820868664</v>
       </c>
       <c r="C4">
-        <v>6.030600594057293E-05</v>
+        <v>-6.030600594057293E-05</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16439.21654134284</v>
+        <v>-16439.21654134284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9146.807843268625</v>
+        <v>-9146.807843268625</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.000259584744489391</v>
+        <v>-0.000259584744489391</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.06982439100793529</v>
+        <v>-0.06982439100793529</v>
       </c>
       <c r="C4">
-        <v>0.0007542404955236039</v>
+        <v>-0.0007542404955236039</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>34216.13688572725</v>
+        <v>-34216.13688572725</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>19037.68467851113</v>
+        <v>-19037.68467851113</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002545492137915859</v>
+        <v>-0.002545492137915859</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.593118969148868</v>
+        <v>-0.593118969148868</v>
       </c>
       <c r="C4">
-        <v>0.007396094309122856</v>
+        <v>-0.007396094309122856</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>68030.46751220222</v>
+        <v>-68030.46751220222</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>37849.92883636604</v>
+        <v>-37849.92883636604</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02036318807279892</v>
+        <v>-0.02036318807279892</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4.182880121203263</v>
+        <v>-4.182880121203263</v>
       </c>
       <c r="C4">
-        <v>0.05916657811567158</v>
+        <v>-0.05916657811567158</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>130714.9302353498</v>
+        <v>-130714.9302353498</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>72712.91240432525</v>
+        <v>-72712.91240432525</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1371200651543496</v>
+        <v>-0.1371200651543496</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>25.23050827169343</v>
+        <v>-25.23050827169343</v>
       </c>
       <c r="C4">
-        <v>0.398411339971761</v>
+        <v>-0.398411339971761</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>244132.7240110456</v>
+        <v>-244132.7240110456</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>135731.6555034331</v>
+        <v>-135731.6555034331</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7968792117032831</v>
+        <v>-0.7968792117032831</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>133.2119432352694</v>
+        <v>-133.2119432352694</v>
       </c>
       <c r="C4">
-        <v>2.315384799248505</v>
+        <v>-2.315384799248505</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>443043.2158979222</v>
+        <v>-443043.2158979222</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>245957.4432848153</v>
+        <v>-245957.4432848153</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.078312046816771</v>
+        <v>-4.078312046816771</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>627.0356286212414</v>
+        <v>-627.0356286212414</v>
       </c>
       <c r="C4">
-        <v>11.84980305811723</v>
+        <v>-11.84980305811723</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>779322.5960421166</v>
+        <v>-779322.5960421166</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>431008.9687583946</v>
+        <v>-431008.9687583946</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>18.6853503726323</v>
+        <v>-18.6853503726323</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2670.331478304593</v>
+        <v>-2670.331478304593</v>
       </c>
       <c r="C4">
-        <v>54.29151066565209</v>
+        <v>-54.29151066565209</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1328910.529112223</v>
+        <v>-1328910.529112223</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>728282.8452548888</v>
+        <v>-728282.8452548888</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>77.67655334437963</v>
+        <v>-77.67655334437963</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10410.55235879562</v>
+        <v>-10410.55235879562</v>
       </c>
       <c r="C4">
-        <v>225.694318825523</v>
+        <v>-225.694318825523</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2209188.969906456</v>
+        <v>-2209188.969906456</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1185753.745762286</v>
+        <v>-1185753.745762286</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>296.1673107257529</v>
+        <v>-296.1673107257529</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>37486.10407617537</v>
+        <v>-37486.10407617537</v>
       </c>
       <c r="C4">
-        <v>860.5335403630177</v>
+        <v>-860.5335403630177</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3628500.558124931</v>
+        <v>-3628500.558124931</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1862247.097635958</v>
+        <v>-1862247.097635958</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1043.902932256705</v>
+        <v>-1043.902932256705</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>125267.3718512733</v>
+        <v>-125267.3718512733</v>
       </c>
       <c r="C4">
-        <v>3033.128416127006</v>
+        <v>-3033.128416127006</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6023034.283453048</v>
+        <v>-6023034.283453048</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2826986.008719072</v>
+        <v>-2826986.008719072</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3412.195902371866</v>
+        <v>-3412.195902371866</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>387221.5272311829</v>
+        <v>-387221.5272311829</v>
       </c>
       <c r="C4">
-        <v>9914.358924639149</v>
+        <v>-9914.358924639149</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10390350.82670923</v>
+        <v>-10390350.82670923</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4158186.76903557</v>
+        <v>-4158186.76903557</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10273.98788146461</v>
+        <v>-10273.98788146461</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1083675.538613191</v>
+        <v>-1083675.538613191</v>
       </c>
       <c r="C4">
-        <v>29851.74543273696</v>
+        <v>-29851.74543273696</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>18857547.76935858</v>
+        <v>-18857547.76935858</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5940411.897110445</v>
+        <v>-5940411.897110445</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>27687.74175383091</v>
+        <v>-27687.74175383091</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2585681.209162808</v>
+        <v>-2585681.209162808</v>
       </c>
       <c r="C4">
-        <v>80448.54909103674</v>
+        <v>-80448.54909103674</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>34442981.15943056</v>
+        <v>-34442981.15943056</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8260242.926272261</v>
+        <v>-8260242.926272261</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>62099.86742492107</v>
+        <v>-62099.86742492107</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4686405.301252107</v>
+        <v>-4686405.301252107</v>
       </c>
       <c r="C4">
-        <v>180435.236556965</v>
+        <v>-180435.236556965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>55936511.87834366</v>
+        <v>-55936511.87834366</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11199871.69426746</v>
+        <v>-11199871.69426746</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>100809.4503646111</v>
+        <v>-100809.4503646111</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5940448.129621314</v>
+        <v>-5940448.129621314</v>
       </c>
       <c r="C4">
-        <v>292908.467891779</v>
+        <v>-292908.467891779</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>72575285.87201165</v>
+        <v>-72575285.87201165</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14828718.8068199</v>
+        <v>-14828718.8068199</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>99346.99671316368</v>
+        <v>-99346.99671316368</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6242669.988143058</v>
+        <v>-6242669.988143058</v>
       </c>
       <c r="C4">
-        <v>288659.2129175788</v>
+        <v>-288659.2129175788</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>82597841.80969585</v>
+        <v>-82597841.80969585</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>19194131.86121531</v>
+        <v>-19194131.86121531</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>60556.30970952116</v>
+        <v>-60556.30970952116</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6735483.944347263</v>
+        <v>-6735483.944347263</v>
       </c>
       <c r="C4">
-        <v>175950.328407133</v>
+        <v>-175950.328407133</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>94462794.94576484</v>
+        <v>-94462794.94576484</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>24311419.21560981</v>
+        <v>-24311419.21560981</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>53617.19626303112</v>
+        <v>-53617.19626303112</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2739,16 +2739,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7383175.794520379</v>
+        <v>-7383175.794520379</v>
       </c>
       <c r="C4">
-        <v>155788.2793057112</v>
+        <v>-155788.2793057112</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>109537373.9392827</v>
+        <v>-109537373.9392827</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>30154576.0484855</v>
+        <v>-30154576.0484855</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05838362704407672</v>
+        <v>-0.05838362704407672</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03248484459245427</v>
+        <v>-0.03248484459245427</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>91344.88862504801</v>
+        <v>-91344.88862504801</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8105943.886585714</v>
+        <v>-8105943.886585714</v>
       </c>
       <c r="C4">
-        <v>265408.5631866565</v>
+        <v>-265408.5631866565</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>127419682.910493</v>
+        <v>-127419682.910493</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>36652315.13895788</v>
+        <v>-36652315.13895788</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>136483.2108166367</v>
+        <v>-136483.2108166367</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8803601.244652785</v>
+        <v>-8803601.244652785</v>
       </c>
       <c r="C4">
-        <v>396560.917936376</v>
+        <v>-396560.917936376</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>146271578.64677</v>
+        <v>-146271578.64677</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>43691948.03810351</v>
+        <v>-43691948.03810351</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>193215.0047432258</v>
+        <v>-193215.0047432258</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9367986.705195501</v>
+        <v>-9367986.705195501</v>
       </c>
       <c r="C4">
-        <v>561398.8649709803</v>
+        <v>-561398.8649709803</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>165150428.0186647</v>
+        <v>-165150428.0186647</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>51133141.54928885</v>
+        <v>-51133141.54928885</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>260366.9197051297</v>
+        <v>-260366.9197051297</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9970048.118321661</v>
+        <v>-9970048.118321661</v>
       </c>
       <c r="C4">
-        <v>756513.1568984678</v>
+        <v>-756513.1568984678</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>185026031.1061912</v>
+        <v>-185026031.1061912</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>58835077.00875929</v>
+        <v>-58835077.00875929</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>299583.7797622654</v>
+        <v>-299583.7797622654</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9822379.028321849</v>
+        <v>-9822379.028321849</v>
       </c>
       <c r="C4">
-        <v>870460.3151590826</v>
+        <v>-870460.3151590826</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>199030660.8106113</v>
+        <v>-199030660.8106113</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>66700277.1451954</v>
+        <v>-66700277.1451954</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>349468.6356169173</v>
+        <v>-349468.6356169173</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9549259.820366411</v>
+        <v>-9549259.820366411</v>
       </c>
       <c r="C4">
-        <v>1015404.034686768</v>
+        <v>-1015404.034686768</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>212682230.1196799</v>
+        <v>-212682230.1196799</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>74736211.28840357</v>
+        <v>-74736211.28840357</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>538133.7863061999</v>
+        <v>-538133.7863061999</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3499,16 +3499,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9547496.936551705</v>
+        <v>-9547496.936551705</v>
       </c>
       <c r="C4">
-        <v>1563583.000379937</v>
+        <v>-1563583.000379937</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>232327531.8703081</v>
+        <v>-232327531.8703081</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>83131859.00418997</v>
+        <v>-83131859.00418997</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>841674.659771767</v>
+        <v>-841674.659771767</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9365073.317988265</v>
+        <v>-9365073.317988265</v>
       </c>
       <c r="C4">
-        <v>2445540.91075203</v>
+        <v>-2445540.91075203</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>254893421.0590433</v>
+        <v>-254893421.0590433</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92340380.47522047</v>
+        <v>-92340380.47522047</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1149309.558757253</v>
+        <v>-1149309.558757253</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9354588.739600113</v>
+        <v>-9354588.739600113</v>
       </c>
       <c r="C4">
-        <v>3339394.280708637</v>
+        <v>-3339394.280708637</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>281698056.51447</v>
+        <v>-281698056.51447</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>103151921.6019792</v>
+        <v>-103151921.6019792</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1434674.731415591</v>
+        <v>-1434674.731415591</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9161024.790458195</v>
+        <v>-9161024.790458195</v>
       </c>
       <c r="C4">
-        <v>4168541.500643973</v>
+        <v>-4168541.500643973</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>311602214.3459101</v>
+        <v>-311602214.3459101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>116733767.7696742</v>
+        <v>-116733767.7696742</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.456104246019478</v>
+        <v>-2.456104246019478</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.36658458499975</v>
+        <v>-1.36658458499975</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1377841.147122013</v>
+        <v>-1377841.147122013</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8739900.279659577</v>
+        <v>-8739900.279659577</v>
       </c>
       <c r="C4">
-        <v>4003407.79502391</v>
+        <v>-4003407.79502391</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>339274409.4244176</v>
+        <v>-339274409.4244176</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>134611634.731245</v>
+        <v>-134611634.731245</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1241802.224422365</v>
+        <v>-1241802.224422365</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8140849.077473384</v>
+        <v>-8140849.077473384</v>
       </c>
       <c r="C4">
-        <v>3608137.785342455</v>
+        <v>-3608137.785342455</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>374664494.7304634</v>
+        <v>-374664494.7304634</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>158575697.8646629</v>
+        <v>-158575697.8646629</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1214389.523803222</v>
+        <v>-1214389.523803222</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7458481.31547616</v>
+        <v>-7458481.31547616</v>
       </c>
       <c r="C4">
-        <v>3528488.386302104</v>
+        <v>-3528488.386302104</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>426400596.5710188</v>
+        <v>-426400596.5710188</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>190510340.2166515</v>
+        <v>-190510340.2166515</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1092848.408763719</v>
+        <v>-1092848.408763719</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7703551.540233773</v>
+        <v>-7703551.540233773</v>
       </c>
       <c r="C4">
-        <v>3175342.70736706</v>
+        <v>-3175342.70736706</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>500112075.5291855</v>
+        <v>-500112075.5291855</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>232163294.6301781</v>
+        <v>-232163294.6301781</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>943099.7068509205</v>
+        <v>-943099.7068509205</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9287289.595489221</v>
+        <v>-9287289.595489221</v>
       </c>
       <c r="C4">
-        <v>2740238.035261255</v>
+        <v>-2740238.035261255</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>602832312.9937352</v>
+        <v>-602832312.9937352</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>284884841.4438836</v>
+        <v>-284884841.4438836</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>819750.7430125523</v>
+        <v>-819750.7430125523</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4449,16 +4449,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13151772.12702023</v>
+        <v>-13151772.12702023</v>
       </c>
       <c r="C4">
-        <v>2381839.533104376</v>
+        <v>-2381839.533104376</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>744035388.6181754</v>
+        <v>-744035388.6181754</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>349373710.6954752</v>
+        <v>-349373710.6954752</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1032846.680434255</v>
+        <v>-1032846.680434255</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>20246183.44784241</v>
+        <v>-20246183.44784241</v>
       </c>
       <c r="C4">
-        <v>3001003.751522384</v>
+        <v>-3001003.751522384</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>937876045.8612229</v>
+        <v>-937876045.8612229</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>425462023.0408154</v>
+        <v>-425462023.0408154</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1594582.511650402</v>
+        <v>-1594582.511650402</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>29940165.91717386</v>
+        <v>-29940165.91717386</v>
       </c>
       <c r="C4">
-        <v>4633164.040923158</v>
+        <v>-4633164.040923158</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1177896957.732408</v>
+        <v>-1177896957.732408</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>511959868.8800804</v>
+        <v>-511959868.8800804</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2215439.73731698</v>
+        <v>-2215439.73731698</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>40603012.52507675</v>
+        <v>-40603012.52507675</v>
       </c>
       <c r="C4">
-        <v>6437105.418361489</v>
+        <v>-6437105.418361489</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1441021538.095722</v>
+        <v>-1441021538.095722</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>606570067.7641288</v>
+        <v>-606570067.7641288</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3118419.082108279</v>
+        <v>-3118419.082108279</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4829,16 +4829,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>56449690.54459296</v>
+        <v>-56449690.54459296</v>
       </c>
       <c r="C4">
-        <v>9060771.111053236</v>
+        <v>-9060771.111053236</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1757376009.780826</v>
+        <v>-1757376009.780826</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>705883491.7260126</v>
+        <v>-705883491.7260126</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.72180697215842</v>
+        <v>-21.72180697215842</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.08608576553732</v>
+        <v>-12.08608576553732</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4304093.759444319</v>
+        <v>-4304093.759444319</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5019,16 +5019,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>77518029.99333091</v>
+        <v>-77518029.99333091</v>
       </c>
       <c r="C4">
-        <v>12505826.62817463</v>
+        <v>-12505826.62817463</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2119296367.338162</v>
+        <v>-2119296367.338162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>805474066.054951</v>
+        <v>-805474066.054951</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4908096.314305115</v>
+        <v>-4908096.314305115</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5114,16 +5114,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>88341067.40232396</v>
+        <v>-88341067.40232396</v>
       </c>
       <c r="C4">
-        <v>14260795.65446249</v>
+        <v>-14260795.65446249</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2383249370.599728</v>
+        <v>-2383249370.599728</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>900119898.5807711</v>
+        <v>-900119898.5807711</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4949781.356207061</v>
+        <v>-4949781.356207061</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5209,16 +5209,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>88862015.06917638</v>
+        <v>-88862015.06917638</v>
       </c>
       <c r="C4">
-        <v>14381914.27690654</v>
+        <v>-14381914.27690654</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2539131669.523302</v>
+        <v>-2539131669.523302</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>984169932.9560908</v>
+        <v>-984169932.9560908</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4909255.76700992</v>
+        <v>-4909255.76700992</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>87722298.4982816</v>
+        <v>-87722298.4982816</v>
       </c>
       <c r="C4">
-        <v>14264164.52031911</v>
+        <v>-14264164.52031911</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2651801861.342273</v>
+        <v>-2651801861.342273</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1052047872.388258</v>
+        <v>-1052047872.388258</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4783312.326140044</v>
+        <v>-4783312.326140044</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>85143519.89247485</v>
+        <v>-85143519.89247485</v>
       </c>
       <c r="C4">
-        <v>13898227.59503294</v>
+        <v>-13898227.59503294</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2713978329.090301</v>
+        <v>-2713978329.090301</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1098842885.482006</v>
+        <v>-1098842885.482006</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4590614.811710812</v>
+        <v>-4590614.811710812</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>81414128.38410802</v>
+        <v>-81414128.38410802</v>
       </c>
       <c r="C4">
-        <v>13338332.33209999</v>
+        <v>-13338332.33209999</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2721648142.682811</v>
+        <v>-2721648142.682811</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1120895888.212458</v>
+        <v>-1120895888.212458</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4443904.787493373</v>
+        <v>-4443904.787493373</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>78438515.01855282</v>
+        <v>-78438515.01855282</v>
       </c>
       <c r="C4">
-        <v>12912056.73727757</v>
+        <v>-12912056.73727757</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2687999897.143777</v>
+        <v>-2687999897.143777</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1116269751.600426</v>
+        <v>-1116269751.600426</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4271578.814946741</v>
+        <v>-4271578.814946741</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5684,16 +5684,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>74793511.52965376</v>
+        <v>-74793511.52965376</v>
       </c>
       <c r="C4">
-        <v>12411352.3250024</v>
+        <v>-12411352.3250024</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2600954243.750091</v>
+        <v>-2600954243.750091</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1085004556.443994</v>
+        <v>-1085004556.443994</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3838729.012092296</v>
+        <v>-3838729.012092296</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5779,16 +5779,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>66089150.63071635</v>
+        <v>-66089150.63071635</v>
       </c>
       <c r="C4">
-        <v>11153678.84178439</v>
+        <v>-11153678.84178439</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2426292943.57089</v>
+        <v>-2426292943.57089</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1029105799.959529</v>
+        <v>-1029105799.959529</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2891457.535491551</v>
+        <v>-2891457.535491551</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>47866870.13948</v>
+        <v>-47866870.13948</v>
       </c>
       <c r="C4">
-        <v>8401319.455981109</v>
+        <v>-8401319.455981109</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2131893174.1803</v>
+        <v>-2131893174.1803</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>952280134.3536166</v>
+        <v>-952280134.3536166</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>104.7229019735688</v>
+        <v>-104.7229019735688</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>58.26817154257874</v>
+        <v>-58.26817154257874</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1564187.874108049</v>
+        <v>-1564187.874108049</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>23310651.41395191</v>
+        <v>-23310651.41395191</v>
       </c>
       <c r="C4">
-        <v>4544850.428633272</v>
+        <v>-4544850.428633272</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1753241295.764152</v>
+        <v>-1753241295.764152</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>859493356.4757708</v>
+        <v>-859493356.4757708</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>826310.6992450394</v>
+        <v>-826310.6992450394</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10546609.61041135</v>
+        <v>-10546609.61041135</v>
       </c>
       <c r="C4">
-        <v>2400899.916059995</v>
+        <v>-2400899.916059995</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1456751988.920426</v>
+        <v>-1456751988.920426</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>756453406.5381373</v>
+        <v>-756453406.5381373</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>646307.5110259906</v>
+        <v>-646307.5110259906</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9019508.511674667</v>
+        <v>-9019508.511674667</v>
       </c>
       <c r="C4">
-        <v>1877888.850270216</v>
+        <v>-1877888.850270216</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1248282312.610869</v>
+        <v>-1248282312.610869</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>649105223.6341739</v>
+        <v>-649105223.6341739</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>450032.9288673255</v>
+        <v>-450032.9288673255</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6349,16 +6349,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7784313.677812094</v>
+        <v>-7784313.677812094</v>
       </c>
       <c r="C4">
-        <v>1307600.182508809</v>
+        <v>-1307600.182508809</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1044107084.29867</v>
+        <v>-1044107084.29867</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>543176877.3144385</v>
+        <v>-543176877.3144385</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>252011.0672798709</v>
+        <v>-252011.0672798709</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6444,16 +6444,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5444904.650406127</v>
+        <v>-5444904.650406127</v>
       </c>
       <c r="C4">
-        <v>732234.6798017259</v>
+        <v>-732234.6798017259</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>843530969.3040673</v>
+        <v>-843530969.3040673</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>443771832.6216162</v>
+        <v>-443771832.6216162</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>90870.519062544</v>
+        <v>-90870.519062544</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6539,16 +6539,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2656485.11790399</v>
+        <v>-2656485.11790399</v>
       </c>
       <c r="C4">
-        <v>264030.2513194159</v>
+        <v>-264030.2513194159</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>659662446.1661664</v>
+        <v>-659662446.1661664</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>354994687.4995224</v>
+        <v>-354994687.4995224</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>31365.13490707814</v>
+        <v>-31365.13490707814</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2060491.834530568</v>
+        <v>-2060491.834530568</v>
       </c>
       <c r="C4">
-        <v>91133.45601650383</v>
+        <v>-91133.45601650383</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>518415315.8795858</v>
+        <v>-518415315.8795858</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>279633479.7122849</v>
+        <v>-279633479.7122849</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>73535.74144490254</v>
+        <v>-73535.74144490254</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3686348.61491513</v>
+        <v>-3686348.61491513</v>
       </c>
       <c r="C4">
-        <v>213662.9183475212</v>
+        <v>-213662.9183475212</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>422307973.5532137</v>
+        <v>-422307973.5532137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>218969066.4405231</v>
+        <v>-218969066.4405231</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>186712.1717346084</v>
+        <v>-186712.1717346084</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6824,16 +6824,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6038371.872291771</v>
+        <v>-6038371.872291771</v>
       </c>
       <c r="C4">
-        <v>542504.4572877613</v>
+        <v>-542504.4572877613</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>359276366.343417</v>
+        <v>-359276366.343417</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>172793804.9948846</v>
+        <v>-172793804.9948846</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>383501.5800653387</v>
+        <v>-383501.5800653387</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6919,16 +6919,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8662934.065991282</v>
+        <v>-8662934.065991282</v>
       </c>
       <c r="C4">
-        <v>1114288.98624814</v>
+        <v>-1114288.98624814</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>323726729.608664</v>
+        <v>-323726729.608664</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>139672941.7554269</v>
+        <v>-139672941.7554269</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.766227729848274E-11</v>
+        <v>-1.766227729848274E-11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7014,16 +7014,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.235314666441001E-08</v>
+        <v>-1.235314666441001E-08</v>
       </c>
       <c r="C4">
-        <v>5.131890476802408E-11</v>
+        <v>-5.131890476802408E-11</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>376.6981169755228</v>
+        <v>-376.6981169755228</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>209.5960872049016</v>
+        <v>-209.5960872049016</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>600777.1308018438</v>
+        <v>-600777.1308018438</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11114883.22643861</v>
+        <v>-11114883.22643861</v>
       </c>
       <c r="C4">
-        <v>1745597.345200502</v>
+        <v>-1745597.345200502</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>306894063.2356332</v>
+        <v>-306894063.2356332</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>117393225.8556594</v>
+        <v>-117393225.8556594</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>760240.3322768721</v>
+        <v>-760240.3322768721</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7204,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13325849.50521368</v>
+        <v>-13325849.50521368</v>
       </c>
       <c r="C4">
-        <v>2208928.132743069</v>
+        <v>-2208928.132743069</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>301913044.4795889</v>
+        <v>-301913044.4795889</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>103468286.8732967</v>
+        <v>-103468286.8732967</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>850232.1920906224</v>
+        <v>-850232.1920906224</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>14970728.00090912</v>
+        <v>-14970728.00090912</v>
       </c>
       <c r="C4">
-        <v>2470405.382003331</v>
+        <v>-2470405.382003331</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>301915261.6912987</v>
+        <v>-301915261.6912987</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>95557695.3996755</v>
+        <v>-95557695.3996755</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>776848.5754624372</v>
+        <v>-776848.5754624372</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13761645.89829</v>
+        <v>-13761645.89829</v>
       </c>
       <c r="C4">
-        <v>2257184.472285277</v>
+        <v>-2257184.472285277</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>284378750.1736825</v>
+        <v>-284378750.1736825</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>91713458.95030755</v>
+        <v>-91713458.95030755</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>471884.764555107</v>
+        <v>-471884.764555107</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7489,16 +7489,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8358078.906600385</v>
+        <v>-8358078.906600385</v>
       </c>
       <c r="C4">
-        <v>1371092.123877214</v>
+        <v>-1371092.123877214</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>235177178.2879013</v>
+        <v>-235177178.2879013</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>90454323.78312662</v>
+        <v>-90454323.78312662</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>155627.4961751496</v>
+        <v>-155627.4961751496</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7584,16 +7584,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2704441.533023898</v>
+        <v>-2704441.533023898</v>
       </c>
       <c r="C4">
-        <v>452185.8942948776</v>
+        <v>-452185.8942948776</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>186629061.0566389</v>
+        <v>-186629061.0566389</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>90729427.59854342</v>
+        <v>-90729427.59854342</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>22685.1387683609</v>
+        <v>-22685.1387683609</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7679,16 +7679,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>360667.7150858061</v>
+        <v>-360667.7150858061</v>
       </c>
       <c r="C4">
-        <v>65913.15810690682</v>
+        <v>-65913.15810690682</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>168250457.0729605</v>
+        <v>-168250457.0729605</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>91840522.16437551</v>
+        <v>-91840522.16437551</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5102.941067765611</v>
+        <v>-5102.941067765611</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>72893.41687013621</v>
+        <v>-72893.41687013621</v>
       </c>
       <c r="C4">
-        <v>14826.9298611906</v>
+        <v>-14826.9298611906</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>168451646.9046206</v>
+        <v>-168451646.9046206</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>93361418.59233482</v>
+        <v>-93361418.59233482</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12266.72835735613</v>
+        <v>-12266.72835735613</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7869,16 +7869,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>174620.0626526066</v>
+        <v>-174620.0626526066</v>
       </c>
       <c r="C4">
-        <v>35641.78354511836</v>
+        <v>-35641.78354511836</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>172424864.6644652</v>
+        <v>-172424864.6644652</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>95061290.75842009</v>
+        <v>-95061290.75842009</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>32652.2194827204</v>
+        <v>-32652.2194827204</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7964,16 +7964,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>466800.5017162016</v>
+        <v>-466800.5017162016</v>
       </c>
       <c r="C4">
-        <v>94873.16464238142</v>
+        <v>-94873.16464238142</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>178233107.1479937</v>
+        <v>-178233107.1479937</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>96828343.25065434</v>
+        <v>-96828343.25065434</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.353827572609097E-09</v>
+        <v>-1.353827572609097E-09</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8059,16 +8059,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7.370024711862009E-07</v>
+        <v>-7.370024711862009E-07</v>
       </c>
       <c r="C4">
-        <v>3.933634779758544E-09</v>
+        <v>-3.933634779758544E-09</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1145.731774772932</v>
+        <v>-1145.731774772932</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>637.4889734706915</v>
+        <v>-637.4889734706915</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>70609.83988104032</v>
+        <v>-70609.83988104032</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1018450.774153807</v>
+        <v>-1018450.774153807</v>
       </c>
       <c r="C4">
-        <v>205161.5195086887</v>
+        <v>-205161.5195086887</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>186371491.5914087</v>
+        <v>-186371491.5914087</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>98598353.69905552</v>
+        <v>-98598353.69905552</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>100648.5545813242</v>
+        <v>-100648.5545813242</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8249,16 +8249,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1494834.948461421</v>
+        <v>-1494834.948461421</v>
       </c>
       <c r="C4">
-        <v>292440.9746438508</v>
+        <v>-292440.9746438508</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>193647522.2438419</v>
+        <v>-193647522.2438419</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>100301794.7597373</v>
+        <v>-100301794.7597373</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>76362.74442260862</v>
+        <v>-76362.74442260862</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1308842.448597582</v>
+        <v>-1308842.448597582</v>
       </c>
       <c r="C4">
-        <v>221876.9608597108</v>
+        <v>-221876.9608597108</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>194467144.5173167</v>
+        <v>-194467144.5173167</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101842586.7831684</v>
+        <v>-101842586.7831684</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>86296.33991363463</v>
+        <v>-86296.33991363463</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8439,16 +8439,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1861095.861914883</v>
+        <v>-1861095.861914883</v>
       </c>
       <c r="C4">
-        <v>250739.6738832363</v>
+        <v>-250739.6738832363</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>201031262.3454628</v>
+        <v>-201031262.3454628</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>103111834.4370231</v>
+        <v>-103111834.4370231</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>195135.7840028043</v>
+        <v>-195135.7840028043</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4267059.30535031</v>
+        <v>-4267059.30535031</v>
       </c>
       <c r="C4">
-        <v>566979.8150510234</v>
+        <v>-566979.8150510234</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>222924014.729772</v>
+        <v>-222924014.729772</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>104027524.6444616</v>
+        <v>-104027524.6444616</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>346742.637658592</v>
+        <v>-346742.637658592</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7543992.159291699</v>
+        <v>-7543992.159291699</v>
       </c>
       <c r="C4">
-        <v>1007483.46888107</v>
+        <v>-1007483.46888107</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>251577721.5880342</v>
+        <v>-251577721.5880342</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>104581497.2889203</v>
+        <v>-104581497.2889203</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>428934.1057313298</v>
+        <v>-428934.1057313298</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8724,16 +8724,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9123868.671241742</v>
+        <v>-9123868.671241742</v>
       </c>
       <c r="C4">
-        <v>1246296.168483021</v>
+        <v>-1246296.168483021</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>265653502.4360144</v>
+        <v>-265653502.4360144</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>104871330.412938</v>
+        <v>-104871330.412938</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>456414.0976993454</v>
+        <v>-456414.0976993454</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9127319.927163957</v>
+        <v>-9127319.927163957</v>
       </c>
       <c r="C4">
-        <v>1326141.086949668</v>
+        <v>-1326141.086949668</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>266753461.8188926</v>
+        <v>-266753461.8188926</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>105099005.2888188</v>
+        <v>-105099005.2888188</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>503059.6513880938</v>
+        <v>-503059.6513880938</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8914,16 +8914,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9488700.788886966</v>
+        <v>-9488700.788886966</v>
       </c>
       <c r="C4">
-        <v>1461672.801640291</v>
+        <v>-1461672.801640291</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>271303606.9814243</v>
+        <v>-271303606.9814243</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>105530359.9464522</v>
+        <v>-105530359.9464522</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>564331.6087667984</v>
+        <v>-564331.6087667984</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10479457.42638135</v>
+        <v>-10479457.42638135</v>
       </c>
       <c r="C4">
-        <v>1639702.491273705</v>
+        <v>-1639702.491273705</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>281648847.2694968</v>
+        <v>-281648847.2694968</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>106425739.5427307</v>
+        <v>-106425739.5427307</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.133437165969078E-08</v>
+        <v>-5.133437165969078E-08</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9104,16 +9104,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.336560762986255E-05</v>
+        <v>-2.336560762986255E-05</v>
       </c>
       <c r="C4">
-        <v>1.49155382740839E-07</v>
+        <v>-1.49155382740839E-07</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3074.66667322528</v>
+        <v>-3074.66667322528</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1710.754684384375</v>
+        <v>-1710.754684384375</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>619904.4028022494</v>
+        <v>-619904.4028022494</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11365504.98301958</v>
+        <v>-11365504.98301958</v>
       </c>
       <c r="C4">
-        <v>1801172.888131494</v>
+        <v>-1801172.888131494</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>292247989.8035038</v>
+        <v>-292247989.8035038</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>107965641.7103741</v>
+        <v>-107965641.7103741</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>669410.4278226721</v>
+        <v>-669410.4278226721</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9294,16 +9294,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11799703.26129562</v>
+        <v>-11799703.26129562</v>
       </c>
       <c r="C4">
-        <v>1945015.889831209</v>
+        <v>-1945015.889831209</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>300637903.6744888</v>
+        <v>-300637903.6744888</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>110198344.106486</v>
+        <v>-110198344.106486</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>700670.1388007109</v>
+        <v>-700670.1388007109</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9389,16 +9389,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11825380.08029524</v>
+        <v>-11825380.08029524</v>
       </c>
       <c r="C4">
-        <v>2035843.02970947</v>
+        <v>-2035843.02970947</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>306666982.4637861</v>
+        <v>-306666982.4637861</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>113027146.7502908</v>
+        <v>-113027146.7502908</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>682180.0730761717</v>
+        <v>-682180.0730761717</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9484,16 +9484,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11369777.9149321</v>
+        <v>-11369777.9149321</v>
       </c>
       <c r="C4">
-        <v>1982118.931393244</v>
+        <v>-1982118.931393244</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>308654924.9863286</v>
+        <v>-308654924.9863286</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>116237954.2551509</v>
+        <v>-116237954.2551509</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>603388.2423025656</v>
+        <v>-603388.2423025656</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10307264.71096678</v>
+        <v>-10307264.71096678</v>
       </c>
       <c r="C4">
-        <v>1753184.100870777</v>
+        <v>-1753184.100870777</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>304926919.4361559</v>
+        <v>-304926919.4361559</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>119552751.8178588</v>
+        <v>-119552751.8178588</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>480020.2275562884</v>
+        <v>-480020.2275562884</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9674,16 +9674,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8483890.095714426</v>
+        <v>-8483890.095714426</v>
       </c>
       <c r="C4">
-        <v>1394730.245051842</v>
+        <v>-1394730.245051842</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>294227941.0064675</v>
+        <v>-294227941.0064675</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>122688341.6784943</v>
+        <v>-122688341.6784943</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>346670.2208563176</v>
+        <v>-346670.2208563176</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9769,16 +9769,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6237774.970776807</v>
+        <v>-6237774.970776807</v>
       </c>
       <c r="C4">
-        <v>1007273.057113849</v>
+        <v>-1007273.057113849</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>279437121.9470226</v>
+        <v>-279437121.9470226</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>125403444.415238</v>
+        <v>-125403444.415238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>257507.2206435993</v>
+        <v>-257507.2206435993</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9864,16 +9864,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4636463.343746576</v>
+        <v>-4636463.343746576</v>
       </c>
       <c r="C4">
-        <v>748204.1137709154</v>
+        <v>-748204.1137709154</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>269371619.0482489</v>
+        <v>-269371619.0482489</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>127526184.0415913</v>
+        <v>-127526184.0415913</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>268015.9169460879</v>
+        <v>-268015.9169460879</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4803162.345715812</v>
+        <v>-4803162.345715812</v>
       </c>
       <c r="C4">
-        <v>778737.8199102607</v>
+        <v>-778737.8199102607</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>273427420.4801398</v>
+        <v>-273427420.4801398</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>128962316.969305</v>
+        <v>-128962316.969305</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>350541.2712805038</v>
+        <v>-350541.2712805038</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10054,16 +10054,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6270332.80015358</v>
+        <v>-6270332.80015358</v>
       </c>
       <c r="C4">
-        <v>1018520.647937717</v>
+        <v>-1018520.647937717</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>287471790.4872632</v>
+        <v>-287471790.4872632</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>129689198.552785</v>
+        <v>-129689198.552785</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-301240116.7787766</v>
+        <v>-301240116.7787765</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-72575285.87201165</v>
+        <v>-72575285.87201166</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-82597841.80969585</v>
+        <v>-82597841.80969584</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-146271578.64677</v>
+        <v>-146271578.6467701</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2539131669.523302</v>
+        <v>-2539131669.523303</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-273427420.4801398</v>
+        <v>-273427420.4801397</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
@@ -122,16 +122,16 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Nd</t>
+    <t>Neodymium</t>
   </si>
   <si>
-    <t>Dy</t>
+    <t>Dysprosium</t>
   </si>
   <si>
-    <t>Cu</t>
+    <t>Copper ores and concentrates</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Raw silicon</t>
   </si>
   <si>
     <t>Region</t>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-7419.091319003098</v>
+        <v>-7419.091319003097</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6023034.283453047</v>
+        <v>-6023034.283453048</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-72575285.87201166</v>
+        <v>-72575285.87201165</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-82597841.80969584</v>
+        <v>-82597841.80969585</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-146271578.6467701</v>
+        <v>-146271578.64677</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-426400596.5710187</v>
+        <v>-426400596.5710188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-500112075.5291854</v>
+        <v>-500112075.5291855</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-937876045.8612227</v>
+        <v>-937876045.8612229</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1441021538.095721</v>
+        <v>-1441021538.095722</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2539131669.523303</v>
+        <v>-2539131669.523302</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-273427420.4801397</v>
+        <v>-273427420.4801398</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
@@ -116,10 +116,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="13">
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>EU27+UK</t>
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Onshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Offshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Silicon layer in PV panel</t>
+  </si>
+  <si>
+    <t>Refinery of Cu in wires of WT and PV</t>
   </si>
   <si>
     <t>Neodymium</t>
@@ -132,27 +153,6 @@
   </si>
   <si>
     <t>Raw silicon</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Generator Onshore</t>
-  </si>
-  <si>
-    <t>Generator Offshore</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Wires</t>
   </si>
 </sst>
 </file>
@@ -517,55 +517,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -660,55 +655,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -761,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-7419.091319003097</v>
+        <v>-7419.091319003098</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -803,55 +793,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -946,55 +931,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1089,55 +1069,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1232,55 +1207,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1375,55 +1345,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1518,55 +1483,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1661,55 +1621,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1804,55 +1759,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1947,55 +1897,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2090,55 +2035,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2233,55 +2173,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2376,55 +2311,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2519,55 +2449,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2662,55 +2587,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2763,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6023034.283453048</v>
+        <v>-6023034.283453047</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2805,55 +2725,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2948,55 +2863,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3091,55 +3001,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3234,55 +3139,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3377,55 +3277,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3478,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-72575285.87201165</v>
+        <v>-72575285.87201166</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3520,55 +3415,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3621,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-82597841.80969585</v>
+        <v>-82597841.80969584</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3663,55 +3553,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3806,55 +3691,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3949,55 +3829,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4092,55 +3967,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4235,55 +4105,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4336,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-146271578.64677</v>
+        <v>-146271578.6467701</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4378,55 +4243,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4521,55 +4381,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4664,55 +4519,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4807,55 +4657,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4950,55 +4795,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5093,55 +4933,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5236,55 +5071,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5379,55 +5209,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5522,55 +5347,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5665,55 +5485,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5808,55 +5623,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5951,55 +5761,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6052,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-426400596.5710188</v>
+        <v>-426400596.5710187</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6094,55 +5899,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6195,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-500112075.5291855</v>
+        <v>-500112075.5291854</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6237,55 +6037,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6380,55 +6175,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6523,55 +6313,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6624,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-937876045.8612229</v>
+        <v>-937876045.8612227</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6666,55 +6451,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6809,55 +6589,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6910,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1441021538.095722</v>
+        <v>-1441021538.095721</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6952,55 +6727,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7095,55 +6865,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7238,55 +7003,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7381,55 +7141,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7524,55 +7279,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7625,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2539131669.523302</v>
+        <v>-2539131669.523303</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,55 +7417,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7810,55 +7555,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7953,55 +7693,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8096,55 +7831,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8239,55 +7969,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8382,55 +8107,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8525,55 +8245,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8668,55 +8383,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8811,55 +8521,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8954,55 +8659,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9097,55 +8797,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9240,55 +8935,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9383,55 +9073,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9526,55 +9211,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9669,55 +9349,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9812,55 +9487,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9955,55 +9625,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10098,55 +9763,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10241,55 +9901,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10384,55 +10039,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10527,55 +10177,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10670,55 +10315,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10813,55 +10453,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10956,55 +10591,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11099,55 +10729,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11242,55 +10867,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11385,55 +11005,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11528,55 +11143,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11671,55 +11281,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11814,55 +11419,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11957,55 +11557,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12100,55 +11695,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12243,55 +11833,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12386,55 +11971,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12529,55 +12109,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12672,55 +12247,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12815,55 +12385,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12958,55 +12523,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13101,55 +12661,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13244,55 +12799,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13387,55 +12937,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13530,55 +13075,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13673,55 +13213,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13816,55 +13351,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13959,55 +13489,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14102,55 +13627,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14245,55 +13765,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14388,55 +13903,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14531,55 +14041,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14674,55 +14179,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14775,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-273427420.4801398</v>
+        <v>-273427420.4801397</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14817,55 +14317,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.236466412520811E-06</v>
+        <v>-1.236466412520811E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0004670347454553303</v>
+        <v>-4.670347454553307E-10</v>
       </c>
       <c r="E7">
-        <v>-3.592634234004855E-06</v>
+        <v>-3.592634234004855E-12</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-7419.091319003098</v>
+        <v>-0.007419091319003099</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4128.005207824431</v>
+        <v>-0.004128005207824431</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-418258.89942389</v>
+        <v>-0.4182588994238908</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7464858.848968079</v>
+        <v>-7.464858848968072</v>
       </c>
       <c r="E7">
-        <v>-1215278.65660659</v>
+        <v>-1.215278656606592</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-297949261.912626</v>
+        <v>-297.9492619126258</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-129741393.4903591</v>
+        <v>-129.741393490359</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-447217.9842105993</v>
+        <v>-0.4472179842105978</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7953331.418244656</v>
+        <v>-7.953331418244658</v>
       </c>
       <c r="E7">
-        <v>-1299421.176238865</v>
+        <v>-1.299421176238861</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-301240116.7787766</v>
+        <v>-301.2401167787762</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-129192784.2460685</v>
+        <v>-129.1927842460683</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.075534161340905E-05</v>
+        <v>-2.075534161340905E-11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.006562609820868664</v>
+        <v>-6.562609820868669E-09</v>
       </c>
       <c r="E7">
-        <v>-6.030600594057293E-05</v>
+        <v>-6.030600594057292E-11</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-16439.21654134284</v>
+        <v>-0.01643921654134285</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-9146.807843268625</v>
+        <v>-0.009146807843268628</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.000259584744489391</v>
+        <v>-2.59584744489391E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.06982439100793529</v>
+        <v>-6.982439100793537E-08</v>
       </c>
       <c r="E7">
-        <v>-0.0007542404955236039</v>
+        <v>-7.542404955236039E-10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-34216.13688572725</v>
+        <v>-0.03421613688572725</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-19037.68467851113</v>
+        <v>-0.01903768467851112</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.002545492137915859</v>
+        <v>-2.545492137915859E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.593118969148868</v>
+        <v>-5.931189691488684E-07</v>
       </c>
       <c r="E7">
-        <v>-0.007396094309122856</v>
+        <v>-7.396094309122855E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68030.46751220222</v>
+        <v>-0.06803046751220221</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-37849.92883636604</v>
+        <v>-0.03784992883636604</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02036318807279892</v>
+        <v>-2.036318807279892E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.182880121203263</v>
+        <v>-4.182880121203265E-06</v>
       </c>
       <c r="E7">
-        <v>-0.05916657811567158</v>
+        <v>-5.916657811567158E-08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-130714.9302353498</v>
+        <v>-0.1307149302353497</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-72712.91240432525</v>
+        <v>-0.07271291240432524</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1371200651543496</v>
+        <v>-1.371200651543495E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-25.23050827169343</v>
+        <v>-2.523050827169344E-05</v>
       </c>
       <c r="E7">
-        <v>-0.398411339971761</v>
+        <v>-3.984113399717608E-07</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-244132.7240110456</v>
+        <v>-0.2441327240110457</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-135731.6555034331</v>
+        <v>-0.1357316555034332</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7968792117032831</v>
+        <v>-7.96879211703283E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-133.2119432352694</v>
+        <v>-0.0001332119432352695</v>
       </c>
       <c r="E7">
-        <v>-2.315384799248505</v>
+        <v>-2.315384799248505E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-443043.2158979222</v>
+        <v>-0.4430432158979223</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-245957.4432848153</v>
+        <v>-0.2459574432848153</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.078312046816771</v>
+        <v>-4.078312046816772E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-627.0356286212414</v>
+        <v>-0.0006270356286212414</v>
       </c>
       <c r="E7">
-        <v>-11.84980305811723</v>
+        <v>-1.184980305811723E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-779322.5960421166</v>
+        <v>-0.7793225960421167</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-431008.9687583946</v>
+        <v>-0.4310089687583947</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-18.6853503726323</v>
+        <v>-1.86853503726323E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2670.331478304593</v>
+        <v>-0.002670331478304594</v>
       </c>
       <c r="E7">
-        <v>-54.29151066565209</v>
+        <v>-5.429151066565208E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1328910.529112223</v>
+        <v>-1.328910529112223</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-728282.8452548888</v>
+        <v>-0.7282828452548887</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-77.67655334437963</v>
+        <v>-7.767655334437961E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10410.55235879562</v>
+        <v>-0.01041055235879562</v>
       </c>
       <c r="E7">
-        <v>-225.694318825523</v>
+        <v>-0.0002256943188255229</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2209188.969906456</v>
+        <v>-2.209188969906457</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1185753.745762286</v>
+        <v>-1.185753745762286</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-296.1673107257529</v>
+        <v>-0.0002961673107257528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-37486.10407617537</v>
+        <v>-0.03748610407617536</v>
       </c>
       <c r="E7">
-        <v>-860.5335403630177</v>
+        <v>-0.0008605335403630176</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3628500.558124931</v>
+        <v>-3.628500558124931</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1862247.097635958</v>
+        <v>-1.862247097635958</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1043.902932256705</v>
+        <v>-0.001043902932256705</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-125267.3718512733</v>
+        <v>-0.1252673718512733</v>
       </c>
       <c r="E7">
-        <v>-3033.128416127006</v>
+        <v>-0.003033128416127007</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6023034.283453047</v>
+        <v>-6.023034283453049</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2826986.008719072</v>
+        <v>-2.826986008719072</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3412.195902371866</v>
+        <v>-0.003412195902371867</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-387221.5272311829</v>
+        <v>-0.3872215272311829</v>
       </c>
       <c r="E7">
-        <v>-9914.358924639149</v>
+        <v>-0.00991435892463915</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-10390350.82670923</v>
+        <v>-10.39035082670923</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4158186.76903557</v>
+        <v>-4.158186769035571</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-10273.98788146461</v>
+        <v>-0.01027398788146461</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1083675.538613191</v>
+        <v>-1.083675538613191</v>
       </c>
       <c r="E7">
-        <v>-29851.74543273696</v>
+        <v>-0.02985174543273695</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-18857547.76935858</v>
+        <v>-18.85754776935858</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5940411.897110445</v>
+        <v>-5.940411897110444</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-27687.74175383091</v>
+        <v>-0.02768774175383091</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2585681.209162808</v>
+        <v>-2.585681209162809</v>
       </c>
       <c r="E7">
-        <v>-80448.54909103674</v>
+        <v>-0.08044854909103673</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-34442981.15943056</v>
+        <v>-34.44298115943056</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-8260242.926272261</v>
+        <v>-8.260242926272261</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-62099.86742492107</v>
+        <v>-0.06209986742492105</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4686405.301252107</v>
+        <v>-4.686405301252106</v>
       </c>
       <c r="E7">
-        <v>-180435.236556965</v>
+        <v>-0.1804352365569649</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-55936511.87834366</v>
+        <v>-55.93651187834365</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-11199871.69426746</v>
+        <v>-11.19987169426746</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-100809.4503646111</v>
+        <v>-0.1008094503646111</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5940448.129621314</v>
+        <v>-5.940448129621312</v>
       </c>
       <c r="E7">
-        <v>-292908.467891779</v>
+        <v>-0.2929084678917789</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-72575285.87201166</v>
+        <v>-72.57528587201165</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-14828718.8068199</v>
+        <v>-14.8287188068199</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-99346.99671316368</v>
+        <v>-0.09934699671316365</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6242669.988143058</v>
+        <v>-6.242669988143057</v>
       </c>
       <c r="E7">
-        <v>-288659.2129175788</v>
+        <v>-0.2886592129175787</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-82597841.80969584</v>
+        <v>-82.59784180969586</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-19194131.86121531</v>
+        <v>-19.19413186121533</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-60556.30970952116</v>
+        <v>-0.06055630970952116</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6735483.944347263</v>
+        <v>-6.735483944347262</v>
       </c>
       <c r="E7">
-        <v>-175950.328407133</v>
+        <v>-0.175950328407133</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-94462794.94576484</v>
+        <v>-94.46279494576486</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-24311419.21560981</v>
+        <v>-24.31141921560982</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-53617.19626303112</v>
+        <v>-0.05361719626303112</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7383175.794520379</v>
+        <v>-7.383175794520378</v>
       </c>
       <c r="E7">
-        <v>-155788.2793057112</v>
+        <v>-0.1557882793057112</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-109537373.9392827</v>
+        <v>-109.5373739392827</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-30154576.0484855</v>
+        <v>-30.15457604848551</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.05838362704407672</v>
+        <v>-5.838362704407671E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.03248484459245427</v>
+        <v>-3.248484459245424E-08</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-91344.88862504801</v>
+        <v>-0.091344888625048</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8105943.886585714</v>
+        <v>-8.105943886585717</v>
       </c>
       <c r="E7">
-        <v>-265408.5631866565</v>
+        <v>-0.2654085631866565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-127419682.910493</v>
+        <v>-127.4196829104931</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-36652315.13895788</v>
+        <v>-36.65231513895789</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-136483.2108166367</v>
+        <v>-0.1364832108166367</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8803601.244652785</v>
+        <v>-8.803601244652789</v>
       </c>
       <c r="E7">
-        <v>-396560.917936376</v>
+        <v>-0.396560917936376</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-146271578.6467701</v>
+        <v>-146.2715786467701</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-43691948.03810351</v>
+        <v>-43.6919480381035</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-193215.0047432258</v>
+        <v>-0.1932150047432257</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9367986.705195501</v>
+        <v>-9.367986705195504</v>
       </c>
       <c r="E7">
-        <v>-561398.8649709803</v>
+        <v>-0.5613988649709803</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-165150428.0186647</v>
+        <v>-165.1504280186647</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-51133141.54928885</v>
+        <v>-51.13314154928883</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-260366.9197051297</v>
+        <v>-0.2603669197051297</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9970048.118321661</v>
+        <v>-9.970048118321662</v>
       </c>
       <c r="E7">
-        <v>-756513.1568984678</v>
+        <v>-0.756513156898468</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-185026031.1061912</v>
+        <v>-185.0260311061912</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-58835077.00875929</v>
+        <v>-58.83507700875928</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-299583.7797622654</v>
+        <v>-0.2995837797622654</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9822379.028321849</v>
+        <v>-9.822379028321858</v>
       </c>
       <c r="E7">
-        <v>-870460.3151590826</v>
+        <v>-0.8704603151590828</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-199030660.8106113</v>
+        <v>-199.0306608106114</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-66700277.1451954</v>
+        <v>-66.70027714519541</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-349468.6356169173</v>
+        <v>-0.3494686356169175</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9549259.820366411</v>
+        <v>-9.549259820366418</v>
       </c>
       <c r="E7">
-        <v>-1015404.034686768</v>
+        <v>-1.015404034686769</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-212682230.1196799</v>
+        <v>-212.68223011968</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-74736211.28840357</v>
+        <v>-74.73621128840358</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-538133.7863061999</v>
+        <v>-0.5381337863061998</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9547496.936551705</v>
+        <v>-9.547496936551708</v>
       </c>
       <c r="E7">
-        <v>-1563583.000379937</v>
+        <v>-1.563583000379937</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-232327531.8703081</v>
+        <v>-232.3275318703082</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83131859.00418997</v>
+        <v>-83.13185900418999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-841674.659771767</v>
+        <v>-0.841674659771767</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9365073.317988265</v>
+        <v>-9.365073317988264</v>
       </c>
       <c r="E7">
-        <v>-2445540.91075203</v>
+        <v>-2.44554091075203</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-254893421.0590433</v>
+        <v>-254.8934210590433</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92340380.47522047</v>
+        <v>-92.34038047522048</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1149309.558757253</v>
+        <v>-1.149309558757253</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9354588.739600113</v>
+        <v>-9.354588739600118</v>
       </c>
       <c r="E7">
-        <v>-3339394.280708637</v>
+        <v>-3.339394280708637</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-281698056.51447</v>
+        <v>-281.6980565144701</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103151921.6019792</v>
+        <v>-103.1519216019792</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1434674.731415591</v>
+        <v>-1.43467473141559</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9161024.790458195</v>
+        <v>-9.161024790458203</v>
       </c>
       <c r="E7">
-        <v>-4168541.500643973</v>
+        <v>-4.168541500643971</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-311602214.3459101</v>
+        <v>-311.6022143459102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116733767.7696742</v>
+        <v>-116.7337677696743</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.456104246019478</v>
+        <v>-2.456104246019477E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.36658458499975</v>
+        <v>-1.36658458499975E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1377841.147122013</v>
+        <v>-1.377841147122012</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8739900.279659577</v>
+        <v>-8.739900279659576</v>
       </c>
       <c r="E7">
-        <v>-4003407.79502391</v>
+        <v>-4.003407795023907</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-339274409.4244176</v>
+        <v>-339.2744094244176</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134611634.731245</v>
+        <v>-134.6116347312451</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1241802.224422365</v>
+        <v>-1.241802224422365</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8140849.077473384</v>
+        <v>-8.14084907747338</v>
       </c>
       <c r="E7">
-        <v>-3608137.785342455</v>
+        <v>-3.608137785342453</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-374664494.7304634</v>
+        <v>-374.6644947304636</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-158575697.8646629</v>
+        <v>-158.575697864663</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1214389.523803222</v>
+        <v>-1.214389523803222</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7458481.31547616</v>
+        <v>-7.458481315476156</v>
       </c>
       <c r="E7">
-        <v>-3528488.386302104</v>
+        <v>-3.528488386302103</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-426400596.5710187</v>
+        <v>-426.4005965710188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-190510340.2166515</v>
+        <v>-190.5103402166515</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1092848.408763719</v>
+        <v>-1.092848408763719</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7703551.540233773</v>
+        <v>-7.703551540233766</v>
       </c>
       <c r="E7">
-        <v>-3175342.70736706</v>
+        <v>-3.17534270736706</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-500112075.5291854</v>
+        <v>-500.1120755291857</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-232163294.6301781</v>
+        <v>-232.1632946301782</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-943099.7068509205</v>
+        <v>-0.9430997068509204</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9287289.595489221</v>
+        <v>-9.287289595489211</v>
       </c>
       <c r="E7">
-        <v>-2740238.035261255</v>
+        <v>-2.740238035261255</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-602832312.9937352</v>
+        <v>-602.8323129937351</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-284884841.4438836</v>
+        <v>-284.8848414438835</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-819750.7430125523</v>
+        <v>-0.8197507430125518</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13151772.12702023</v>
+        <v>-13.15177212702022</v>
       </c>
       <c r="E7">
-        <v>-2381839.533104376</v>
+        <v>-2.381839533104375</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-744035388.6181754</v>
+        <v>-744.0353886181754</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-349373710.6954752</v>
+        <v>-349.3737106954752</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1032846.680434255</v>
+        <v>-1.032846680434255</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-20246183.44784241</v>
+        <v>-20.24618344784242</v>
       </c>
       <c r="E7">
-        <v>-3001003.751522384</v>
+        <v>-3.001003751522383</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-937876045.8612227</v>
+        <v>-937.8760458612225</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-425462023.0408154</v>
+        <v>-425.4620230408153</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1594582.511650402</v>
+        <v>-1.594582511650402</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-29940165.91717386</v>
+        <v>-29.94016591717387</v>
       </c>
       <c r="E7">
-        <v>-4633164.040923158</v>
+        <v>-4.633164040923158</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1177896957.732408</v>
+        <v>-1177.896957732409</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-511959868.8800804</v>
+        <v>-511.9598688800805</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2215439.73731698</v>
+        <v>-2.215439737316979</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-40603012.52507675</v>
+        <v>-40.60301252507674</v>
       </c>
       <c r="E7">
-        <v>-6437105.418361489</v>
+        <v>-6.437105418361487</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1441021538.095721</v>
+        <v>-1441.021538095722</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-606570067.7641288</v>
+        <v>-606.5700677641289</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3118419.082108279</v>
+        <v>-3.118419082108278</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-56449690.54459296</v>
+        <v>-56.44969054459293</v>
       </c>
       <c r="E7">
-        <v>-9060771.111053236</v>
+        <v>-9.060771111053235</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1757376009.780826</v>
+        <v>-1757.376009780826</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-705883491.7260126</v>
+        <v>-705.8834917260125</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-21.72180697215842</v>
+        <v>-2.172180697215842E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-12.08608576553732</v>
+        <v>-1.208608576553732E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4304093.759444319</v>
+        <v>-4.304093759444319</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-77518029.99333091</v>
+        <v>-77.51802999333091</v>
       </c>
       <c r="E7">
-        <v>-12505826.62817463</v>
+        <v>-12.50582662817463</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2119296367.338162</v>
+        <v>-2119.296367338163</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-805474066.054951</v>
+        <v>-805.4740660549514</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4908096.314305115</v>
+        <v>-4.908096314305116</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-88341067.40232396</v>
+        <v>-88.34106740232396</v>
       </c>
       <c r="E7">
-        <v>-14260795.65446249</v>
+        <v>-14.26079565446249</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2383249370.599728</v>
+        <v>-2383.249370599729</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-900119898.5807711</v>
+        <v>-900.1198985807714</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4949781.356207061</v>
+        <v>-4.949781356207061</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-88862015.06917638</v>
+        <v>-88.86201506917637</v>
       </c>
       <c r="E7">
-        <v>-14381914.27690654</v>
+        <v>-14.38191427690654</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2539131669.523303</v>
+        <v>-2539.131669523304</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-984169932.9560908</v>
+        <v>-984.1699329560914</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4909255.76700992</v>
+        <v>-4.90925576700992</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-87722298.4982816</v>
+        <v>-87.72229849828162</v>
       </c>
       <c r="E7">
-        <v>-14264164.52031911</v>
+        <v>-14.26416452031911</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2651801861.342273</v>
+        <v>-2651.801861342274</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1052047872.388258</v>
+        <v>-1052.047872388259</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4783312.326140044</v>
+        <v>-4.783312326140046</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-85143519.89247485</v>
+        <v>-85.14351989247487</v>
       </c>
       <c r="E7">
-        <v>-13898227.59503294</v>
+        <v>-13.89822759503294</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2713978329.090301</v>
+        <v>-2713.978329090302</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1098842885.482006</v>
+        <v>-1098.842885482006</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4590614.811710812</v>
+        <v>-4.590614811710815</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-81414128.38410802</v>
+        <v>-81.41412838410808</v>
       </c>
       <c r="E7">
-        <v>-13338332.33209999</v>
+        <v>-13.33833233209999</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2721648142.682811</v>
+        <v>-2721.648142682812</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1120895888.212458</v>
+        <v>-1120.895888212458</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4443904.787493373</v>
+        <v>-4.443904787493376</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-78438515.01855282</v>
+        <v>-78.43851501855285</v>
       </c>
       <c r="E7">
-        <v>-12912056.73727757</v>
+        <v>-12.91205673727758</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2687999897.143777</v>
+        <v>-2687.999897143777</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1116269751.600426</v>
+        <v>-1116.269751600426</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4271578.814946741</v>
+        <v>-4.271578814946741</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-74793511.52965376</v>
+        <v>-74.79351152965376</v>
       </c>
       <c r="E7">
-        <v>-12411352.3250024</v>
+        <v>-12.4113523250024</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2600954243.750091</v>
+        <v>-2600.954243750091</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1085004556.443994</v>
+        <v>-1085.004556443994</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3838729.012092296</v>
+        <v>-3.838729012092298</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-66089150.63071635</v>
+        <v>-66.08915063071632</v>
       </c>
       <c r="E7">
-        <v>-11153678.84178439</v>
+        <v>-11.15367884178439</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2426292943.57089</v>
+        <v>-2426.292943570892</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1029105799.959529</v>
+        <v>-1029.10579995953</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2891457.535491551</v>
+        <v>-2.891457535491552</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-47866870.13948</v>
+        <v>-47.86687013947996</v>
       </c>
       <c r="E7">
-        <v>-8401319.455981109</v>
+        <v>-8.401319455981113</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2131893174.1803</v>
+        <v>-2131.893174180301</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-952280134.3536166</v>
+        <v>-952.280134353617</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-104.7229019735688</v>
+        <v>-0.0001047229019735687</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-58.26817154257874</v>
+        <v>-5.826817154257873E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1564187.874108049</v>
+        <v>-1.564187874108048</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-23310651.41395191</v>
+        <v>-23.31065141395189</v>
       </c>
       <c r="E7">
-        <v>-4544850.428633272</v>
+        <v>-4.54485042863327</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1753241295.764152</v>
+        <v>-1753.241295764152</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-859493356.4757708</v>
+        <v>-859.4933564757712</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-826310.6992450394</v>
+        <v>-0.8263106992450383</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10546609.61041135</v>
+        <v>-10.54660961041138</v>
       </c>
       <c r="E7">
-        <v>-2400899.916059995</v>
+        <v>-2.400899916059992</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1456751988.920426</v>
+        <v>-1456.751988920426</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-756453406.5381373</v>
+        <v>-756.4534065381376</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-646307.5110259906</v>
+        <v>-0.6463075110259925</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9019508.511674667</v>
+        <v>-9.019508511674697</v>
       </c>
       <c r="E7">
-        <v>-1877888.850270216</v>
+        <v>-1.877888850270221</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1248282312.610869</v>
+        <v>-1248.282312610869</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-649105223.6341739</v>
+        <v>-649.1052236341737</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-450032.9288673255</v>
+        <v>-0.4500329288673287</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7784313.677812094</v>
+        <v>-7.784313677812063</v>
       </c>
       <c r="E7">
-        <v>-1307600.182508809</v>
+        <v>-1.307600182508819</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1044107084.29867</v>
+        <v>-1044.10708429867</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-543176877.3144385</v>
+        <v>-543.1768773144387</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-252011.0672798709</v>
+        <v>-0.2520110672798743</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5444904.650406127</v>
+        <v>-5.444904650406033</v>
       </c>
       <c r="E7">
-        <v>-732234.6798017259</v>
+        <v>-0.732234679801736</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-843530969.3040673</v>
+        <v>-843.5309693040668</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-443771832.6216162</v>
+        <v>-443.7718326216165</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-90870.519062544</v>
+        <v>-0.09087051906254626</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2656485.11790399</v>
+        <v>-2.656485117903904</v>
       </c>
       <c r="E7">
-        <v>-264030.2513194159</v>
+        <v>-0.2640302513194225</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-659662446.1661664</v>
+        <v>-659.6624461661655</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-354994687.4995224</v>
+        <v>-354.9946874995223</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-31365.13490707814</v>
+        <v>-0.03136513490707952</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2060491.834530568</v>
+        <v>-2.060491834530499</v>
       </c>
       <c r="E7">
-        <v>-91133.45601650383</v>
+        <v>-0.09113345601650782</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-518415315.8795858</v>
+        <v>-518.4153158795854</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-279633479.7122849</v>
+        <v>-279.6334797122848</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-73535.74144490254</v>
+        <v>-0.07353574144490579</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3686348.61491513</v>
+        <v>-3.686348614915063</v>
       </c>
       <c r="E7">
-        <v>-213662.9183475212</v>
+        <v>-0.2136629183475307</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-422307973.5532137</v>
+        <v>-422.307973553213</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-218969066.4405231</v>
+        <v>-218.969066440523</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-186712.1717346084</v>
+        <v>-0.1867121717346151</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6038371.872291771</v>
+        <v>-6.038371872291762</v>
       </c>
       <c r="E7">
-        <v>-542504.4572877613</v>
+        <v>-0.5425044572877806</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-359276366.343417</v>
+        <v>-359.276366343417</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-172793804.9948846</v>
+        <v>-172.7938049948845</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-383501.5800653387</v>
+        <v>-0.3835015800653467</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8662934.065991282</v>
+        <v>-8.662934065991307</v>
       </c>
       <c r="E7">
-        <v>-1114288.98624814</v>
+        <v>-1.114288986248164</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-323726729.608664</v>
+        <v>-323.7267296086642</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-139672941.7554269</v>
+        <v>-139.6729417554268</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.766227729848274E-11</v>
+        <v>-1.766227729848273E-17</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9988,16 +9988,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.235314666441001E-08</v>
+        <v>-1.235314666441002E-14</v>
       </c>
       <c r="E7">
-        <v>-5.131890476802408E-11</v>
+        <v>-5.131890476802406E-17</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-376.6981169755228</v>
+        <v>-0.0003766981169755228</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-209.5960872049016</v>
+        <v>-0.0002095960872049016</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-600777.1308018438</v>
+        <v>-0.6007771308018454</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11114883.22643861</v>
+        <v>-11.1148832264386</v>
       </c>
       <c r="E7">
-        <v>-1745597.345200502</v>
+        <v>-1.745597345200506</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-306894063.2356332</v>
+        <v>-306.8940632356332</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117393225.8556594</v>
+        <v>-117.3932258556593</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-760240.3322768721</v>
+        <v>-0.7602403322768688</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13325849.50521368</v>
+        <v>-13.32584950521368</v>
       </c>
       <c r="E7">
-        <v>-2208928.132743069</v>
+        <v>-2.20892813274306</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-301913044.4795889</v>
+        <v>-301.9130444795888</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103468286.8732967</v>
+        <v>-103.4682868732966</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-850232.1920906224</v>
+        <v>-0.8502321920906222</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14970728.00090912</v>
+        <v>-14.97072800090914</v>
       </c>
       <c r="E7">
-        <v>-2470405.382003331</v>
+        <v>-2.47040538200333</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-301915261.6912987</v>
+        <v>-301.915261691299</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95557695.3996755</v>
+        <v>-95.55769539967555</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-776848.5754624372</v>
+        <v>-0.7768485754624381</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13761645.89829</v>
+        <v>-13.76164589829006</v>
       </c>
       <c r="E7">
-        <v>-2257184.472285277</v>
+        <v>-2.257184472285279</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-284378750.1736825</v>
+        <v>-284.3787501736829</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91713458.95030755</v>
+        <v>-91.71345895030755</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-471884.764555107</v>
+        <v>-0.4718847645551041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8358078.906600385</v>
+        <v>-8.358078906600438</v>
       </c>
       <c r="E7">
-        <v>-1371092.123877214</v>
+        <v>-1.371092123877205</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-235177178.2879013</v>
+        <v>-235.1771782879017</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90454323.78312662</v>
+        <v>-90.4543237831267</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-155627.4961751496</v>
+        <v>-0.1556274961751425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2704441.533023898</v>
+        <v>-2.704441533023937</v>
       </c>
       <c r="E7">
-        <v>-452185.8942948776</v>
+        <v>-0.4521858942948571</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-186629061.0566389</v>
+        <v>-186.6290610566391</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90729427.59854342</v>
+        <v>-90.72942759854344</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-22685.1387683609</v>
+        <v>-0.02268513876835656</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-360667.7150858061</v>
+        <v>-0.360667715085825</v>
       </c>
       <c r="E7">
-        <v>-65913.15810690682</v>
+        <v>-0.06591315810689422</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-168250457.0729605</v>
+        <v>-168.2504570729606</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91840522.16437551</v>
+        <v>-91.84052216437554</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5102.941067765611</v>
+        <v>-0.005102941067765138</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-72893.41687013621</v>
+        <v>-0.07289341687013719</v>
       </c>
       <c r="E7">
-        <v>-14826.9298611906</v>
+        <v>-0.01482692986118922</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-168451646.9046206</v>
+        <v>-168.4516469046207</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-93361418.59233482</v>
+        <v>-93.36141859233483</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-12266.72835735613</v>
+        <v>-0.01226672835735577</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-174620.0626526066</v>
+        <v>-0.174620062652605</v>
       </c>
       <c r="E7">
-        <v>-35641.78354511836</v>
+        <v>-0.03564178354511731</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-172424864.6644652</v>
+        <v>-172.4248646644653</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95061290.75842009</v>
+        <v>-95.06129075842013</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-32652.2194827204</v>
+        <v>-0.03265221948271945</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-466800.5017162016</v>
+        <v>-0.4668005017161975</v>
       </c>
       <c r="E7">
-        <v>-94873.16464238142</v>
+        <v>-0.09487316464237867</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-178233107.1479937</v>
+        <v>-178.2331071479934</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-96828343.25065434</v>
+        <v>-96.82834325065426</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.353827572609097E-09</v>
+        <v>-1.353827572609097E-15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11506,16 +11506,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.370024711862009E-07</v>
+        <v>-7.370024711862015E-13</v>
       </c>
       <c r="E7">
-        <v>-3.933634779758544E-09</v>
+        <v>-3.933634779758541E-15</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1145.731774772932</v>
+        <v>-0.001145731774772932</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-637.4889734706915</v>
+        <v>-0.0006374889734706914</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-70609.83988104032</v>
+        <v>-0.07060983988103833</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1018450.774153807</v>
+        <v>-1.018450774153798</v>
       </c>
       <c r="E7">
-        <v>-205161.5195086887</v>
+        <v>-0.2051615195086829</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-186371491.5914087</v>
+        <v>-186.3714915914085</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-98598353.69905552</v>
+        <v>-98.59835369905549</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-100648.5545813242</v>
+        <v>-0.1006485545813217</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1494834.948461421</v>
+        <v>-1.494834948461409</v>
       </c>
       <c r="E7">
-        <v>-292440.9746438508</v>
+        <v>-0.2924409746438435</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-193647522.2438419</v>
+        <v>-193.6475222438416</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-100301794.7597373</v>
+        <v>-100.3017947597372</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-76362.74442260862</v>
+        <v>-0.07636274442260817</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1308842.448597582</v>
+        <v>-1.308842448597575</v>
       </c>
       <c r="E7">
-        <v>-221876.9608597108</v>
+        <v>-0.2218769608597095</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-194467144.5173167</v>
+        <v>-194.4671445173165</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101842586.7831684</v>
+        <v>-101.8425867831683</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-86296.33991363463</v>
+        <v>-0.08629633991363694</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1861095.861914883</v>
+        <v>-1.86109586191488</v>
       </c>
       <c r="E7">
-        <v>-250739.6738832363</v>
+        <v>-0.250739673883243</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-201031262.3454628</v>
+        <v>-201.0312623454628</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103111834.4370231</v>
+        <v>-103.1118344370231</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-195135.7840028043</v>
+        <v>-0.1951357840028092</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4267059.30535031</v>
+        <v>-4.267059305350301</v>
       </c>
       <c r="E7">
-        <v>-566979.8150510234</v>
+        <v>-0.5669798150510376</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-222924014.729772</v>
+        <v>-222.9240147297721</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104027524.6444616</v>
+        <v>-104.0275246444616</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-346742.637658592</v>
+        <v>-0.3467426376585972</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7543992.159291699</v>
+        <v>-7.543992159291673</v>
       </c>
       <c r="E7">
-        <v>-1007483.46888107</v>
+        <v>-1.007483468881085</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-251577721.5880342</v>
+        <v>-251.5777215880342</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104581497.2889203</v>
+        <v>-104.5814972889204</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-428934.1057313298</v>
+        <v>-0.4289341057313295</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9123868.671241742</v>
+        <v>-9.123868671241683</v>
       </c>
       <c r="E7">
-        <v>-1246296.168483021</v>
+        <v>-1.24629616848302</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-265653502.4360144</v>
+        <v>-265.653502436014</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104871330.412938</v>
+        <v>-104.871330412938</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-456414.0976993454</v>
+        <v>-0.4564140976993431</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9127319.927163957</v>
+        <v>-9.127319927163908</v>
       </c>
       <c r="E7">
-        <v>-1326141.086949668</v>
+        <v>-1.326141086949661</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-266753461.8188926</v>
+        <v>-266.7534618188922</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105099005.2888188</v>
+        <v>-105.0990052888188</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-503059.6513880938</v>
+        <v>-0.5030596513880925</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9488700.788886966</v>
+        <v>-9.488700788887018</v>
       </c>
       <c r="E7">
-        <v>-1461672.801640291</v>
+        <v>-1.461672801640288</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-271303606.9814243</v>
+        <v>-271.3036069814248</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105530359.9464522</v>
+        <v>-105.5303599464522</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-564331.6087667984</v>
+        <v>-0.564331608766798</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10479457.42638135</v>
+        <v>-10.47945742638144</v>
       </c>
       <c r="E7">
-        <v>-1639702.491273705</v>
+        <v>-1.639702491273703</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-281648847.2694968</v>
+        <v>-281.6488472694977</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106425739.5427307</v>
+        <v>-106.4257395427308</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-5.133437165969078E-08</v>
+        <v>-5.133437165969077E-14</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13024,16 +13024,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.336560762986255E-05</v>
+        <v>-2.336560762986257E-11</v>
       </c>
       <c r="E7">
-        <v>-1.49155382740839E-07</v>
+        <v>-1.49155382740839E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3074.66667322528</v>
+        <v>-0.00307466667322528</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1710.754684384375</v>
+        <v>-0.001710754684384374</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-619904.4028022494</v>
+        <v>-0.6199044028022512</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11365504.98301958</v>
+        <v>-11.3655049830196</v>
       </c>
       <c r="E7">
-        <v>-1801172.888131494</v>
+        <v>-1.801172888131499</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-292247989.8035038</v>
+        <v>-292.2479898035041</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-107965641.7103741</v>
+        <v>-107.9656417103743</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-669410.4278226721</v>
+        <v>-0.6694104278226742</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11799703.26129562</v>
+        <v>-11.79970326129563</v>
       </c>
       <c r="E7">
-        <v>-1945015.889831209</v>
+        <v>-1.945015889831215</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300637903.6744888</v>
+        <v>-300.6379036744891</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-110198344.106486</v>
+        <v>-110.1983441064861</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-700670.1388007109</v>
+        <v>-0.7006701388007102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11825380.08029524</v>
+        <v>-11.82538008029527</v>
       </c>
       <c r="E7">
-        <v>-2035843.02970947</v>
+        <v>-2.035843029709468</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-306666982.4637861</v>
+        <v>-306.6669824637866</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113027146.7502908</v>
+        <v>-113.0271467502909</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-682180.0730761717</v>
+        <v>-0.6821800730761683</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11369777.9149321</v>
+        <v>-11.36977791493214</v>
       </c>
       <c r="E7">
-        <v>-1982118.931393244</v>
+        <v>-1.982118931393235</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-308654924.9863286</v>
+        <v>-308.654924986329</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116237954.2551509</v>
+        <v>-116.2379542551511</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-603388.2423025656</v>
+        <v>-0.6033882423025626</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10307264.71096678</v>
+        <v>-10.30726471096678</v>
       </c>
       <c r="E7">
-        <v>-1753184.100870777</v>
+        <v>-1.753184100870769</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-304926919.4361559</v>
+        <v>-304.9269194361563</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119552751.8178588</v>
+        <v>-119.552751817859</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-480020.2275562884</v>
+        <v>-0.4800202275562905</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8483890.095714426</v>
+        <v>-8.483890095714402</v>
       </c>
       <c r="E7">
-        <v>-1394730.245051842</v>
+        <v>-1.394730245051848</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-294227941.0064675</v>
+        <v>-294.2279410064677</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-122688341.6784943</v>
+        <v>-122.6883416784945</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-346670.2208563176</v>
+        <v>-0.3466702208563199</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6237774.970776807</v>
+        <v>-6.23777497077674</v>
       </c>
       <c r="E7">
-        <v>-1007273.057113849</v>
+        <v>-1.007273057113856</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-279437121.9470226</v>
+        <v>-279.4371219470223</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-125403444.415238</v>
+        <v>-125.4034444152381</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-257507.2206435993</v>
+        <v>-0.2575072206435968</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4636463.343746576</v>
+        <v>-4.636463343746563</v>
       </c>
       <c r="E7">
-        <v>-748204.1137709154</v>
+        <v>-0.7482041137709081</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-269371619.0482489</v>
+        <v>-269.3716190482492</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127526184.0415913</v>
+        <v>-127.5261840415915</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-268015.9169460879</v>
+        <v>-0.2680159169460862</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4803162.345715812</v>
+        <v>-4.803162345715879</v>
       </c>
       <c r="E7">
-        <v>-778737.8199102607</v>
+        <v>-0.7787378199102557</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-273427420.4801397</v>
+        <v>-273.4274204801403</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-128962316.969305</v>
+        <v>-128.962316969305</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-350541.2712805038</v>
+        <v>-0.3505412712805043</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6270332.80015358</v>
+        <v>-6.270332800153623</v>
       </c>
       <c r="E7">
-        <v>-1018520.647937717</v>
+        <v>-1.018520647937718</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-287471790.4872632</v>
+        <v>-287.4717904872637</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-129689198.552785</v>
+        <v>-129.6891985527851</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.007419091319003099</v>
+        <v>-0.007419093949496094</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.004128005207824431</v>
+        <v>-0.004128006671439497</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4182588994238908</v>
+        <v>-5.234940597855041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.464858848968072</v>
+        <v>-98.04734124444512</v>
       </c>
       <c r="E7">
-        <v>-1.215278656606592</v>
+        <v>-15.21046315078884</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-297.9492619126258</v>
+        <v>-2670.543339468311</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-129.741393490359</v>
+        <v>-1016.035710376242</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4472179842105978</v>
+        <v>-5.101710827841656</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.953331418244658</v>
+        <v>-94.41876554697775</v>
       </c>
       <c r="E7">
-        <v>-1.299421176238861</v>
+        <v>-14.82335531842738</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-301.2401167787762</v>
+        <v>-2691.490161339532</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-129.1927842460683</v>
+        <v>-1044.264164501786</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.01643921654134285</v>
+        <v>-0.0164392289700015</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.009146807843268628</v>
+        <v>-0.009146814758615706</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.03421613688572725</v>
+        <v>-0.03421618642597721</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.01903768467851112</v>
+        <v>-0.01903771224287126</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.06803046751220221</v>
+        <v>-0.06803064054268214</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.03784992883636604</v>
+        <v>-0.03785002511110153</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.1307149302353497</v>
+        <v>-0.1307154733421625</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.07271291240432524</v>
+        <v>-0.07271321459076521</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.2441327240110457</v>
+        <v>-0.2441342837472445</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1357316555034332</v>
+        <v>-0.1357325233458505</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.4430432158979223</v>
+        <v>-0.4430473712079346</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2459574432848153</v>
+        <v>-0.2459597553131496</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.7793225960421167</v>
+        <v>-0.7793329803781095</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.4310089687583947</v>
+        <v>-0.4310147466375365</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.328910529112223</v>
+        <v>-1.328935097900231</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.7282828452548887</v>
+        <v>-0.7282965154103874</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.209188969906457</v>
+        <v>-2.209244423932933</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.185753745762286</v>
+        <v>-1.185784600567363</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.628500558124931</v>
+        <v>-3.628620703195355</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.862247097635958</v>
+        <v>-1.862313946753406</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2677,13 +2677,13 @@
         <v>-0.1252673718512733</v>
       </c>
       <c r="E7">
-        <v>-0.003033128416127007</v>
+        <v>-0.003033128416127008</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6.023034283453049</v>
+        <v>-6.02328534937998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.826986008719072</v>
+        <v>-2.827125702637243</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.003412195902371867</v>
+        <v>-0.003412195902371868</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.3872215272311829</v>
+        <v>-0.3872215272311833</v>
       </c>
       <c r="E7">
-        <v>-0.00991435892463915</v>
+        <v>-0.009914358924639155</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-10.39035082670923</v>
+        <v>-10.39085867822968</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4.158186769035571</v>
+        <v>-4.158469339313454</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01027398788146461</v>
+        <v>-0.01027398788146462</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.083675538613191</v>
+        <v>-1.083675538613194</v>
       </c>
       <c r="E7">
-        <v>-0.02985174543273695</v>
+        <v>-0.02985174543273699</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-18.85754776935858</v>
+        <v>-18.85854473969721</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5.940411897110444</v>
+        <v>-5.940966614728254</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02768774175383091</v>
+        <v>-0.02768774175383102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.585681209162809</v>
+        <v>-2.585681209162837</v>
       </c>
       <c r="E7">
-        <v>-0.08044854909103673</v>
+        <v>-0.08044854909103705</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-34.44298115943056</v>
+        <v>-34.44488415987887</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-8.260242926272261</v>
+        <v>-8.261301762061441</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06209986742492105</v>
+        <v>-0.06209986742492208</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.686405301252106</v>
+        <v>-4.686405301252337</v>
       </c>
       <c r="E7">
-        <v>-0.1804352365569649</v>
+        <v>-0.1804352365569679</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-55.93651187834365</v>
+        <v>-55.94004871312229</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-11.19987169426746</v>
+        <v>-11.20183960092031</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1008094503646111</v>
+        <v>-0.1008094503646192</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.940448129621312</v>
+        <v>-5.940448129623064</v>
       </c>
       <c r="E7">
-        <v>-0.2929084678917789</v>
+        <v>-0.2929084678918025</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-72.57528587201165</v>
+        <v>-72.58169350628377</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-14.8287188068199</v>
+        <v>-14.83228403586871</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09934699671316365</v>
+        <v>-0.09934699671322338</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.242669988143057</v>
+        <v>-6.242669988155221</v>
       </c>
       <c r="E7">
-        <v>-0.2886592129175787</v>
+        <v>-0.2886592129177523</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-82.59784180969586</v>
+        <v>-82.60916880460408</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-19.19413186121533</v>
+        <v>-19.20043423886782</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06055630970952116</v>
+        <v>-0.06055630970992579</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.735483944347262</v>
+        <v>-6.735483944425223</v>
       </c>
       <c r="E7">
-        <v>-0.175950328407133</v>
+        <v>-0.1759503284083087</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-94.46279494576486</v>
+        <v>-94.48235034545095</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-24.31141921560982</v>
+        <v>-24.32229990482104</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05361719626303112</v>
+        <v>-0.05361719626556918</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.383175794520378</v>
+        <v>-7.383175794984639</v>
       </c>
       <c r="E7">
-        <v>-0.1557882793057112</v>
+        <v>-0.1557882793130857</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-109.5373739392827</v>
+        <v>-109.5703763018769</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-30.15457604848551</v>
+        <v>-30.17293867105533</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.091344888625048</v>
+        <v>-0.09134488863987013</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.105943886585717</v>
+        <v>-8.10594388916852</v>
       </c>
       <c r="E7">
-        <v>-0.2654085631866565</v>
+        <v>-0.2654085632297232</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-127.4196829104931</v>
+        <v>-127.4741753312092</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-36.65231513895789</v>
+        <v>-36.68263489266702</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1364832108166367</v>
+        <v>-0.1364832108976411</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.803601244652789</v>
+        <v>-8.803601258140892</v>
       </c>
       <c r="E7">
-        <v>-0.396560917936376</v>
+        <v>-0.3965609181717396</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-146.2715786467701</v>
+        <v>-146.3596875363266</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-43.6919480381035</v>
+        <v>-43.74097206176233</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1932150047432257</v>
+        <v>-0.1932150051593653</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.367986705195504</v>
+        <v>-9.367986771591967</v>
       </c>
       <c r="E7">
-        <v>-0.5613988649709803</v>
+        <v>-0.5613988661801013</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-165.1504280186647</v>
+        <v>-165.2900536306235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-51.13314154928883</v>
+        <v>-51.21082942892137</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2603669197051297</v>
+        <v>-0.2603669217224691</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.970048118321662</v>
+        <v>-9.970048427479579</v>
       </c>
       <c r="E7">
-        <v>-0.756513156898468</v>
+        <v>-0.7565131627599799</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-185.0260311061912</v>
+        <v>-185.2430645352273</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-58.83507700875928</v>
+        <v>-58.9558338454129</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2995837797622654</v>
+        <v>-0.2995837890202223</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.822379028321858</v>
+        <v>-9.822380393656402</v>
       </c>
       <c r="E7">
-        <v>-0.8704603151590828</v>
+        <v>-0.8704603420586833</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-199.0306608106114</v>
+        <v>-199.3618237142474</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-66.70027714519541</v>
+        <v>-66.88453160261919</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3494686356169175</v>
+        <v>-0.3494686759363203</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.549259820366418</v>
+        <v>-9.549265550316317</v>
       </c>
       <c r="E7">
-        <v>-1.015404034686769</v>
+        <v>-1.015404151837437</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-212.68223011968</v>
+        <v>-213.1786298939766</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-74.73621128840358</v>
+        <v>-75.01238589657243</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5381337863061998</v>
+        <v>-0.5381339532202507</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.547496936551708</v>
+        <v>-9.547519812671142</v>
       </c>
       <c r="E7">
-        <v>-1.563583000379937</v>
+        <v>-1.563583485359656</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-232.3275318703082</v>
+        <v>-233.0590237011986</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83.13185900418999</v>
+        <v>-83.53876807778664</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.841674659771767</v>
+        <v>-0.8416753171417847</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.365073317988264</v>
+        <v>-9.365160225343997</v>
       </c>
       <c r="E7">
-        <v>-2.44554091075203</v>
+        <v>-2.445542820783718</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-254.8934210590433</v>
+        <v>-255.9538986522728</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92.34038047522048</v>
+        <v>-92.93007093034531</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.149309558757253</v>
+        <v>-1.149312021874721</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.354588739600118</v>
+        <v>-9.354902788713396</v>
       </c>
       <c r="E7">
-        <v>-3.339394280708637</v>
+        <v>-3.339401437457942</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-281.6980565144701</v>
+        <v>-283.2119468233244</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103.1519216019792</v>
+        <v>-103.9929429766669</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.43467473141559</v>
+        <v>-1.43468350634936</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.161024790458203</v>
+        <v>-9.162103191624015</v>
       </c>
       <c r="E7">
-        <v>-4.168541500643971</v>
+        <v>-4.168566996789393</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-311.6022143459102</v>
+        <v>-313.7329758659849</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116.7337677696743</v>
+        <v>-117.914820268423</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.377841147122012</v>
+        <v>-1.377870833606322</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.739900279659576</v>
+        <v>-8.743413877945638</v>
       </c>
       <c r="E7">
-        <v>-4.003407795023907</v>
+        <v>-4.003494051050549</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-339.2744094244176</v>
+        <v>-342.237323982553</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-134.6116347312451</v>
+        <v>-136.2455002000949</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.241802224422365</v>
+        <v>-1.241897428970181</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.14084907747338</v>
+        <v>-8.151688206310274</v>
       </c>
       <c r="E7">
-        <v>-3.608137785342453</v>
+        <v>-3.608414408398489</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-374.6644947304636</v>
+        <v>-378.7497375173124</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-158.575697864663</v>
+        <v>-160.803312527514</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.214389523803222</v>
+        <v>-1.214678234145373</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.458481315476156</v>
+        <v>-7.490045596784094</v>
       </c>
       <c r="E7">
-        <v>-3.528488386302103</v>
+        <v>-3.529327253131337</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-426.4005965710188</v>
+        <v>-432.0204952935206</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-190.5103402166515</v>
+        <v>-193.5048265276619</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.092848408763719</v>
+        <v>-1.093673352592495</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.703551540233766</v>
+        <v>-7.789930202219756</v>
       </c>
       <c r="E7">
-        <v>-3.17534270736706</v>
+        <v>-3.17773963575135</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-500.1120755291857</v>
+        <v>-507.9002438905551</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-232.1632946301782</v>
+        <v>-236.1337419247431</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9430997068509204</v>
+        <v>-0.9453088281654132</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.287289595489211</v>
+        <v>-9.507906699991777</v>
       </c>
       <c r="E7">
-        <v>-2.740238035261255</v>
+        <v>-2.746656782087816</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-602.8323129937351</v>
+        <v>-613.8370437731824</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-284.8848414438835</v>
+        <v>-290.0796222759471</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8197507430125518</v>
+        <v>-0.8252493268738467</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.15177212702022</v>
+        <v>-13.67213201948684</v>
       </c>
       <c r="E7">
-        <v>-2.381839533104375</v>
+        <v>-2.397816029043606</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-744.0353886181754</v>
+        <v>-760.0360770510963</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-349.3737106954752</v>
+        <v>-356.0831536278496</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.032846680434255</v>
+        <v>-1.045404435830924</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-20.24618344784242</v>
+        <v>-21.36187016610006</v>
       </c>
       <c r="E7">
-        <v>-3.001003751522383</v>
+        <v>-3.03749113321224</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-937.8760458612225</v>
+        <v>-961.728273428559</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-425.4620230408153</v>
+        <v>-434.0203440576373</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.594582511650402</v>
+        <v>-1.620382438315809</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-29.94016591717387</v>
+        <v>-32.06746276876538</v>
       </c>
       <c r="E7">
-        <v>-4.633164040923158</v>
+        <v>-4.708127419494828</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1177.896957732409</v>
+        <v>-1213.479330591239</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-511.9598688800805</v>
+        <v>-522.7464003920079</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.215439737316979</v>
+        <v>-2.2617659377506</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-40.60301252507674</v>
+        <v>-44.11799484778965</v>
       </c>
       <c r="E7">
-        <v>-6.437105418361487</v>
+        <v>-6.571709231230036</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1441.021538095722</v>
+        <v>-1492.027467224034</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-606.5700677641289</v>
+        <v>-620.0100191020585</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.118419082108278</v>
+        <v>-3.188390497525895</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-56.44969054459293</v>
+        <v>-61.3873829616883</v>
       </c>
       <c r="E7">
-        <v>-9.060771111053235</v>
+        <v>-9.264077646423337</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1757.376009780826</v>
+        <v>-1824.985457359882</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-705.8834917260125</v>
+        <v>-722.4487235092049</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.172180697215842E-05</v>
+        <v>-2.172180697380816E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.208608576553732E-05</v>
+        <v>-1.208608576645524E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.304093759444319</v>
+        <v>-4.389574762028914</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-77.51802999333091</v>
+        <v>-83.48272895489788</v>
       </c>
       <c r="E7">
-        <v>-12.50582662817463</v>
+        <v>-12.75419728598844</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2119.296367338163</v>
+        <v>-2201.350537431069</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-805.4740660549514</v>
+        <v>-825.684649072282</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.908096314305116</v>
+        <v>-4.992394723124502</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-88.34106740232396</v>
+        <v>-94.92508779086018</v>
       </c>
       <c r="E7">
-        <v>-14.26079565446249</v>
+        <v>-14.50573020855137</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2383.249370599729</v>
+        <v>-2477.38733112057</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-900.1198985807714</v>
+        <v>-924.5475311045433</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.949781356207061</v>
+        <v>-5.026972537074101</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-88.86201506917637</v>
+        <v>-95.99417770941889</v>
       </c>
       <c r="E7">
-        <v>-14.38191427690654</v>
+        <v>-14.60619831417433</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2539.131669523304</v>
+        <v>-2645.821116000686</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-984.1699329560914</v>
+        <v>-1013.444571815409</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.90925576700992</v>
+        <v>-4.996472208744891</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-87.72229849828162</v>
+        <v>-95.48500565022707</v>
       </c>
       <c r="E7">
-        <v>-14.26416452031911</v>
+        <v>-14.51757761037332</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2651.801861342274</v>
+        <v>-2773.318281118687</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1052.047872388259</v>
+        <v>-1086.869143236094</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.783312326140046</v>
+        <v>-4.905168964466554</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-85.14351989247487</v>
+        <v>-93.56056312618395</v>
       </c>
       <c r="E7">
-        <v>-13.89822759503294</v>
+        <v>-14.25229004756656</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2713.978329090302</v>
+        <v>-2852.506663255609</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1098.842885482006</v>
+        <v>-1139.997915765068</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.590614811710815</v>
+        <v>-4.762236844404787</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-81.41412838410808</v>
+        <v>-90.42642890263416</v>
       </c>
       <c r="E7">
-        <v>-13.33833233209999</v>
+        <v>-13.83699140097744</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2721.648142682812</v>
+        <v>-2878.740507909463</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1120.895888212458</v>
+        <v>-1169.285084056712</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.443904787493376</v>
+        <v>-4.673830183395699</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-78.43851501855285</v>
+        <v>-87.91105765781124</v>
       </c>
       <c r="E7">
-        <v>-12.91205673727758</v>
+        <v>-13.58012005078218</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2687.999897143777</v>
+        <v>-2864.759268808648</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1116.269751600426</v>
+        <v>-1172.941648190585</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.271578814946741</v>
+        <v>-4.567795881074129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-74.79351152965376</v>
+        <v>-84.51386297286278</v>
       </c>
       <c r="E7">
-        <v>-12.4113523250024</v>
+        <v>-13.27203043294723</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2600.954243750091</v>
+        <v>-2798.249505254466</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1085.004556443994</v>
+        <v>-1151.200151543938</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.838729012092298</v>
+        <v>-4.218129923054497</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-66.08915063071632</v>
+        <v>-75.79217613510494</v>
       </c>
       <c r="E7">
-        <v>-11.15367884178439</v>
+        <v>-12.25605306508137</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2426.292943570892</v>
+        <v>-2645.264263745894</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1029.10579995953</v>
+        <v>-1106.311696973963</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.891457535491552</v>
+        <v>-3.401420744297919</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-47.86687013947996</v>
+        <v>-57.42639375708634</v>
       </c>
       <c r="E7">
-        <v>-8.401319455981113</v>
+        <v>-9.883050996351511</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2131.893174180301</v>
+        <v>-2375.98514392206</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-952.280134353617</v>
+        <v>-1042.288379629661</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0001047229019735687</v>
+        <v>-0.0001047229021109797</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5.826817154257873E-05</v>
+        <v>-5.826817161903466E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.564187874108048</v>
+        <v>-2.278825720072965</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-23.31065141395189</v>
+        <v>-32.75001351364582</v>
       </c>
       <c r="E7">
-        <v>-4.54485042863327</v>
+        <v>-6.621277547340658</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1753.241295764152</v>
+        <v>-2028.301977886269</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-859.4933564757712</v>
+        <v>-964.4641158214088</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8263106992450383</v>
+        <v>-1.792413143018474</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.54660961041138</v>
+        <v>-19.85987341285594</v>
       </c>
       <c r="E7">
-        <v>-2.400899916059992</v>
+        <v>-5.207973911689272</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1456.751988920426</v>
+        <v>-1768.52244792798</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-756.4534065381376</v>
+        <v>-878.9747165541274</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6463075110259925</v>
+        <v>-1.836610112152397</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.019508511674697</v>
+        <v>-18.15958708905244</v>
       </c>
       <c r="E7">
-        <v>-1.877888850270221</v>
+        <v>-5.336391103407462</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1248.282312610869</v>
+        <v>-1601.266354176343</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-649.1052236341737</v>
+        <v>-792.2421760425867</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4500329288673287</v>
+        <v>-1.760472939937711</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.784313677812063</v>
+        <v>-16.65422205828438</v>
       </c>
       <c r="E7">
-        <v>-1.307600182508819</v>
+        <v>-5.115169557388154</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1044.10708429867</v>
+        <v>-1441.493609380582</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-543.1768773144387</v>
+        <v>-710.5010184521351</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2520110672798743</v>
+        <v>-1.539521700998844</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.444904650406033</v>
+        <v>-13.96370049805597</v>
       </c>
       <c r="E7">
-        <v>-0.732234679801736</v>
+        <v>-4.47318124535691</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-843.5309693040668</v>
+        <v>-1288.590936246158</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-443.7718326216165</v>
+        <v>-639.3606034447804</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09087051906254626</v>
+        <v>-1.270698464841447</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.656485117903904</v>
+        <v>-10.9775663144836</v>
       </c>
       <c r="E7">
-        <v>-0.2640302513194225</v>
+        <v>-3.692097706544019</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-659.6624461661655</v>
+        <v>-1159.630436727731</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-354.9946874995223</v>
+        <v>-583.390722868744</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.03136513490707952</v>
+        <v>-1.096445784144393</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.060491834530499</v>
+        <v>-10.83022858057569</v>
       </c>
       <c r="E7">
-        <v>-0.09113345601650782</v>
+        <v>-3.185795117407724</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-518.4153158795854</v>
+        <v>-1086.690530251359</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-279.6334797122848</v>
+        <v>-545.7548239080958</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.07353574144490579</v>
+        <v>-1.053389872551612</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.686348614915063</v>
+        <v>-14.18565166607048</v>
       </c>
       <c r="E7">
-        <v>-0.2136629183475307</v>
+        <v>-3.060693343191994</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-422.307973553213</v>
+        <v>-1078.234210402978</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-218.969066440523</v>
+        <v>-527.9640429088464</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1867121717346151</v>
+        <v>-1.162080929225577</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.038371872291762</v>
+        <v>-20.24829447769763</v>
       </c>
       <c r="E7">
-        <v>-0.5425044572877806</v>
+        <v>-3.376502334995463</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-359.276366343417</v>
+        <v>-1128.61256684721</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-172.7938049948845</v>
+        <v>-529.8384428795258</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3835015800653467</v>
+        <v>-1.509991643403999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.662934065991307</v>
+        <v>-29.21883905044499</v>
       </c>
       <c r="E7">
-        <v>-1.114288986248164</v>
+        <v>-4.387379726793146</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-323.7267296086642</v>
+        <v>-1238.422890024265</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-139.6729417554268</v>
+        <v>-549.7143431386554</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0003766981169755228</v>
+        <v>-0.0003766981210028003</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0002095960872049016</v>
+        <v>-0.0002095960894456922</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6007771308018454</v>
+        <v>-2.097448524686535</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.1148832264386</v>
+        <v>-40.9195045236009</v>
       </c>
       <c r="E7">
-        <v>-1.745597345200506</v>
+        <v>-6.094274213635378</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-306.8940632356332</v>
+        <v>-1401.441734514008</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117.3932258556593</v>
+        <v>-584.8486568837945</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7602403322768688</v>
+        <v>-2.848343882562046</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.32584950521368</v>
+        <v>-54.97789090025897</v>
       </c>
       <c r="E7">
-        <v>-2.20892813274306</v>
+        <v>-8.276049910525554</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-301.9130444795888</v>
+        <v>-1607.08837764578</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103.4682868732966</v>
+        <v>-631.896473577763</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8502321920906222</v>
+        <v>-3.686979760574991</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-14.97072800090914</v>
+        <v>-70.59279982415231</v>
       </c>
       <c r="E7">
-        <v>-2.47040538200333</v>
+        <v>-10.71276144163098</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-301.915261691299</v>
+        <v>-1841.315654682803</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95.55769539967555</v>
+        <v>-687.3250141319971</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7768485754624381</v>
+        <v>-4.443964466231225</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.76164589829006</v>
+        <v>-84.70121914815383</v>
       </c>
       <c r="E7">
-        <v>-2.257184472285279</v>
+        <v>-12.9122301377634</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-284.3787501736829</v>
+        <v>-2071.39702402955</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91.71345895030755</v>
+        <v>-747.6825684142464</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4718847645551041</v>
+        <v>-4.884141364327856</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.358078906600438</v>
+        <v>-93.01835584385262</v>
       </c>
       <c r="E7">
-        <v>-1.371092123877205</v>
+        <v>-14.19119297662936</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-235.1771782879017</v>
+        <v>-2254.44397090566</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90.4543237831267</v>
+        <v>-809.7254657633493</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1556274961751425</v>
+        <v>-4.994519364875186</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.704441533023937</v>
+        <v>-95.19839381437025</v>
       </c>
       <c r="E7">
-        <v>-0.4521858942948571</v>
+        <v>-14.51190349446615</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-186.6290610566391</v>
+        <v>-2382.238132767927</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90.72942759854344</v>
+        <v>-870.4644611864167</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02268513876835656</v>
+        <v>-4.951373521508249</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.360667715085825</v>
+        <v>-94.29648663696047</v>
       </c>
       <c r="E7">
-        <v>-0.06591315810689422</v>
+        <v>-14.38654041758398</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-168.2504570729606</v>
+        <v>-2476.55326711846</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91.84052216437554</v>
+        <v>-927.1963527393505</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.005102941067765138</v>
+        <v>-4.860297830531425</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.07289341687013719</v>
+        <v>-92.17677773349938</v>
       </c>
       <c r="E7">
-        <v>-0.01482692986118922</v>
+        <v>-14.12191402581494</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-168.4516469046207</v>
+        <v>-2549.335240417071</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-93.36141859233483</v>
+        <v>-977.5527847445154</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01226672835735577</v>
+        <v>-4.752690051257076</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.174620062652605</v>
+        <v>-89.36428084693483</v>
       </c>
       <c r="E7">
-        <v>-0.03564178354511731</v>
+        <v>-13.80925256752421</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-172.4248646644653</v>
+        <v>-2601.645860671349</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95.06129075842013</v>
+        <v>-1019.563214568706</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.03265221948271945</v>
+        <v>-4.647448830032848</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.4668005017161975</v>
+        <v>-86.07607163919077</v>
       </c>
       <c r="E7">
-        <v>-0.09487316464237867</v>
+        <v>-13.5034672988182</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-178.2331071479934</v>
+        <v>-2632.816134930053</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-96.82834325065426</v>
+        <v>-1051.71665808543</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.001145731774772932</v>
+        <v>-0.001145731828594947</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0006374889734706914</v>
+        <v>-0.0006374890034174399</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.07060983988103833</v>
+        <v>-4.513849062690959</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.018450774153798</v>
+        <v>-81.57841280947804</v>
       </c>
       <c r="E7">
-        <v>-0.2051615195086829</v>
+        <v>-13.11528441495884</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-186.3714915914085</v>
+        <v>-2634.934914133813</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-98.59835369905549</v>
+        <v>-1073.013678591469</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1006485545813217</v>
+        <v>-4.228518456001472</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.494834948461409</v>
+        <v>-73.53652383325672</v>
       </c>
       <c r="E7">
-        <v>-0.2924409746438435</v>
+        <v>-12.28623762871242</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-193.6475222438416</v>
+        <v>-2587.124846802999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-100.3017947597372</v>
+        <v>-1083.009476075622</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.07636274442260817</v>
+        <v>-3.638861965602847</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.308842448597575</v>
+        <v>-59.37254646745293</v>
       </c>
       <c r="E7">
-        <v>-0.2218769608597095</v>
+        <v>-10.57295203335978</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-194.4671445173165</v>
+        <v>-2467.083257862193</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.8425867831683</v>
+        <v>-1081.849966312029</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08629633991363694</v>
+        <v>-2.96132298978807</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.86109586191488</v>
+        <v>-43.54945305920217</v>
       </c>
       <c r="E7">
-        <v>-0.250739673883243</v>
+        <v>-8.604318114366219</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-201.0312623454628</v>
+        <v>-2314.087759587064</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103.1118344370231</v>
+        <v>-1070.296179244498</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1951357840028092</v>
+        <v>-2.542473065512089</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.267059305350301</v>
+        <v>-33.1417424800553</v>
       </c>
       <c r="E7">
-        <v>-0.5669798150510376</v>
+        <v>-7.38732219629966</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-222.9240147297721</v>
+        <v>-2190.788766966662</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104.0275246444616</v>
+        <v>-1049.724268055989</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3467426376585972</v>
+        <v>-2.364190366770958</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.543992159291673</v>
+        <v>-28.53198238582106</v>
       </c>
       <c r="E7">
-        <v>-1.007483468881085</v>
+        <v>-6.869310125496742</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-251.5777215880342</v>
+        <v>-2103.051652412856</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104.5814972889204</v>
+        <v>-1022.083829270501</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4289341057313295</v>
+        <v>-2.224781248227263</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.123868671241683</v>
+        <v>-26.26047267838633</v>
       </c>
       <c r="E7">
-        <v>-1.24629616848302</v>
+        <v>-6.464247790813964</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-265.653502436014</v>
+        <v>-2025.02387140802</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104.871330412938</v>
+        <v>-989.7987476342671</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4564140976993431</v>
+        <v>-2.040077375547795</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.127319927163908</v>
+        <v>-24.45290744217786</v>
       </c>
       <c r="E7">
-        <v>-1.326141086949661</v>
+        <v>-5.927578578110731</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-266.7534618188922</v>
+        <v>-1945.862238957043</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105.0990052888188</v>
+        <v>-955.6035952726263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5030596513880925</v>
+        <v>-1.859038177369585</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.488700788887018</v>
+        <v>-23.60748753210827</v>
       </c>
       <c r="E7">
-        <v>-1.461672801640288</v>
+        <v>-5.401557317455681</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-271.3036069814248</v>
+        <v>-1875.477765694287</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105.5303599464522</v>
+        <v>-922.3241161318429</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.564331608766798</v>
+        <v>-1.758573891910248</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.47945742638144</v>
+        <v>-24.93882939824999</v>
       </c>
       <c r="E7">
-        <v>-1.639702491273703</v>
+        <v>-5.109651748827891</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-281.6488472694977</v>
+        <v>-1829.419026096117</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106.4257395427308</v>
+        <v>-892.628390942072</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.00307466667322528</v>
+        <v>-0.00307466711583259</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.001710754684384374</v>
+        <v>-0.001710754930652556</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6199044028022512</v>
+        <v>-1.79651065912972</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.3655049830196</v>
+        <v>-29.11541364375497</v>
       </c>
       <c r="E7">
-        <v>-1.801172888131499</v>
+        <v>-5.219879513415757</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-292.2479898035041</v>
+        <v>-1818.063008747256</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-107.9656417103743</v>
+        <v>-868.7884488932374</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6694104278226742</v>
+        <v>-2.025432640628842</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.79970326129563</v>
+        <v>-36.35328278642847</v>
       </c>
       <c r="E7">
-        <v>-1.945015889831215</v>
+        <v>-5.885027340580153</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-300.6379036744891</v>
+        <v>-1847.300133945026</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-110.1983441064861</v>
+        <v>-852.4932841499242</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7006701388007102</v>
+        <v>-2.462229320035558</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.82538008029527</v>
+        <v>-46.36359189796966</v>
       </c>
       <c r="E7">
-        <v>-2.035843029709468</v>
+        <v>-7.154168732408943</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-306.6669824637866</v>
+        <v>-1917.21981699521</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113.0271467502909</v>
+        <v>-844.7414594930158</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6821800730761683</v>
+        <v>-3.068205143013472</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.36977791493214</v>
+        <v>-58.45056112010431</v>
       </c>
       <c r="E7">
-        <v>-1.982118931393235</v>
+        <v>-8.914871218594008</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-308.654924986329</v>
+        <v>-2022.30825307942</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116.2379542551511</v>
+        <v>-845.8202380095847</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6033882423025626</v>
+        <v>-3.762403765710765</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.30726471096678</v>
+        <v>-71.59588115311939</v>
       </c>
       <c r="E7">
-        <v>-1.753184100870769</v>
+        <v>-10.93191083394169</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-304.9269194361563</v>
+        <v>-2152.483732617055</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119.552751817859</v>
+        <v>-855.3583299025366</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4800202275562905</v>
+        <v>-4.43665965881998</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.483890095714402</v>
+        <v>-84.20946802403479</v>
       </c>
       <c r="E7">
-        <v>-1.394730245051848</v>
+        <v>-12.89100554086962</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-294.2279410064677</v>
+        <v>-2291.821426047446</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-122.6883416784945</v>
+        <v>-872.4286555089967</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3466702208563199</v>
+        <v>-4.978368564900191</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.23777497077674</v>
+        <v>-94.33915651604666</v>
       </c>
       <c r="E7">
-        <v>-1.007273057113856</v>
+        <v>-14.46497628616581</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-279.4371219470223</v>
+        <v>-2420.871694666342</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-125.4034444152381</v>
+        <v>-895.6774007560159</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2575072206435968</v>
+        <v>-5.295786668149208</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.636463343746563</v>
+        <v>-100.273997775027</v>
       </c>
       <c r="E7">
-        <v>-0.7482041137709081</v>
+        <v>-15.38725539757363</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-269.3716190482492</v>
+        <v>-2521.936217172605</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-127.5261840415915</v>
+        <v>-923.461681937148</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2680159169460862</v>
+        <v>-5.389397542377421</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.803162345715879</v>
+        <v>-101.9352132998348</v>
       </c>
       <c r="E7">
-        <v>-0.7787378199102557</v>
+        <v>-15.65924793050605</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-273.4274204801403</v>
+        <v>-2591.220987890384</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-128.962316969305</v>
+        <v>-953.9848314170864</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3505412712805043</v>
+        <v>-5.343297389519543</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.270332800153623</v>
+        <v>-100.751546602904</v>
       </c>
       <c r="E7">
-        <v>-1.018520647937718</v>
+        <v>-15.52530091369028</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-287.4717904872637</v>
+        <v>-2637.94216468372</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-129.6891985527851</v>
+        <v>-985.4226341321659</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2670.543339468311</v>
+        <v>-2670.54333946831</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.03421618642597721</v>
+        <v>-0.03421618642597722</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-82.60916880460408</v>
+        <v>-82.60916880460407</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-127.4741753312092</v>
+        <v>-127.4741753312091</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-199.3618237142474</v>
+        <v>-199.3618237142473</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1213.479330591239</v>
+        <v>-1213.479330591238</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2773.318281118687</v>
+        <v>-2773.318281118688</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1288.590936246158</v>
+        <v>-1288.590936246159</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0003766981210028003</v>
+        <v>-0.0003766981210028002</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.00307466711583259</v>
+        <v>-0.003074667115832591</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2637.94216468372</v>
+        <v>-2637.942164683721</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b2.xlsx
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2670.54333946831</v>
+        <v>-2670.543339468311</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-82.60916880460407</v>
+        <v>-82.60916880460408</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-199.3618237142473</v>
+        <v>-199.3618237142474</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1213.479330591238</v>
+        <v>-1213.479330591239</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2773.318281118688</v>
+        <v>-2773.318281118687</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2637.942164683721</v>
+        <v>-2637.94216468372</v>
       </c>
     </row>
     <row r="8" spans="1:7">
